--- a/MagicPrices.xlsx
+++ b/MagicPrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalton\Desktop\Magic-Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D342C5-4260-4B80-BE7B-07CCABF33091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7DD7B6-535F-44AE-9471-BC08D757C90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1424,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,8 +1445,8 @@
     <col min="14" max="14" width="11.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="27" width="9.140625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="26" width="9.140625" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/MagicPrices.xlsx
+++ b/MagicPrices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalton\Desktop\Magic-Pricing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B316C-A6C6-4E0B-8CA8-03AC98EF9E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440FF812-50FD-49C2-B370-BEC5B79F0907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,985 +49,985 @@
     <t>SLC</t>
   </si>
   <si>
+    <t>Scalding Tarn</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>ZNE</t>
+  </si>
+  <si>
+    <t>Wrenn and Six</t>
+  </si>
+  <si>
+    <t>2X2</t>
+  </si>
+  <si>
+    <t>Raffine's Tower</t>
+  </si>
+  <si>
+    <t>SNC</t>
+  </si>
+  <si>
+    <t>The Meathook Massacre</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>Necropotence</t>
+  </si>
+  <si>
+    <t>Deathrite Shaman</t>
+  </si>
+  <si>
+    <t>Mothra, Supersonic Queen</t>
+  </si>
+  <si>
+    <t>IKO</t>
+  </si>
+  <si>
+    <t>Urza's Saga</t>
+  </si>
+  <si>
+    <t>MH2</t>
+  </si>
+  <si>
+    <t>The Ozolith</t>
+  </si>
+  <si>
+    <t>Ulamog, the Infinite Gyre</t>
+  </si>
+  <si>
+    <t>Bitterblossom</t>
+  </si>
+  <si>
+    <t>Exploration</t>
+  </si>
+  <si>
+    <t>2XM</t>
+  </si>
+  <si>
+    <t>Craterhoof Behemoth</t>
+  </si>
+  <si>
+    <t>SLD</t>
+  </si>
+  <si>
+    <t>The Wandering Emporer</t>
+  </si>
+  <si>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>Teferi's Protection</t>
+  </si>
+  <si>
+    <t>Adrix and Nev, Twincasters</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>Shatterskull Smashing</t>
+  </si>
+  <si>
+    <t>ZNR</t>
+  </si>
+  <si>
+    <t>Food Chain</t>
+  </si>
+  <si>
+    <t>Marneus Calgar</t>
+  </si>
+  <si>
+    <t>40K</t>
+  </si>
+  <si>
+    <t>Ketria Triome</t>
+  </si>
+  <si>
+    <t>Shark Typhoon</t>
+  </si>
+  <si>
+    <t>Walking Ballista</t>
+  </si>
+  <si>
+    <t>Takenuma, Abandoned Mire</t>
+  </si>
+  <si>
+    <t>Arclight Phoenix</t>
+  </si>
+  <si>
+    <t>Emry, Lurker of the Loch</t>
+  </si>
+  <si>
+    <t>Khalni Hydra</t>
+  </si>
+  <si>
+    <t>PLIST</t>
+  </si>
+  <si>
+    <t>Commander's Plate</t>
+  </si>
+  <si>
+    <t>Grief</t>
+  </si>
+  <si>
+    <t>Sheoldred, Whispering One</t>
+  </si>
+  <si>
+    <t>PNPH</t>
+  </si>
+  <si>
+    <t>Elspeth, Sun's Champion</t>
+  </si>
+  <si>
+    <t>Archon of Cruelty</t>
+  </si>
+  <si>
+    <t>Minsc &amp; Boo, Timeless Heroes</t>
+  </si>
+  <si>
+    <t>CLB</t>
+  </si>
+  <si>
+    <t>Cultivator Colossus</t>
+  </si>
+  <si>
+    <t>VOW</t>
+  </si>
+  <si>
+    <t>Crackle with Power</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>Lotus Field</t>
+  </si>
+  <si>
+    <t>Ancient Greenwarden</t>
+  </si>
+  <si>
+    <t>Esika, God of the Tree</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>Monastery Mentor</t>
+  </si>
+  <si>
+    <t>Haunted Ridge</t>
+  </si>
+  <si>
+    <t>Ashaya, Soul of the Wild</t>
+  </si>
+  <si>
+    <t>Unlicensed Hearse</t>
+  </si>
+  <si>
+    <t>Yarok, the Desecrated</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>Vorinclex, Voice of Hunger</t>
+  </si>
+  <si>
+    <t>Birthing Pod</t>
+  </si>
+  <si>
+    <t>Aesi, Tyrant of Gyre Strait</t>
+  </si>
+  <si>
+    <t>Apex Devastator</t>
+  </si>
+  <si>
+    <t>Jin-Gitaxias, Core Augur</t>
+  </si>
+  <si>
+    <t>Beledros Witherbloom</t>
+  </si>
+  <si>
+    <t>Rodan, Titan of Winged Fury</t>
+  </si>
+  <si>
+    <t>Murktide Regent</t>
+  </si>
+  <si>
+    <t>Klauth, Unrivaled Ancient</t>
+  </si>
+  <si>
+    <t>AFC</t>
+  </si>
+  <si>
+    <t>Glimpse of Nature</t>
+  </si>
+  <si>
+    <t>Brazen Borrower</t>
+  </si>
+  <si>
+    <t>ELD</t>
+  </si>
+  <si>
+    <t>Lolth, Spider Queen</t>
+  </si>
+  <si>
+    <t>AFR</t>
+  </si>
+  <si>
+    <t>Prosper, Tome-Bound</t>
+  </si>
+  <si>
+    <t>Luminous Broodmoth</t>
+  </si>
+  <si>
+    <t>The Golden Throne</t>
+  </si>
+  <si>
+    <t>Vexilus Praetor</t>
+  </si>
+  <si>
+    <t>Jin-Gitaxias, Progress Tyrant</t>
+  </si>
+  <si>
+    <t>Vedalken Orrery</t>
+  </si>
+  <si>
+    <t>Chatterfang, Squirrel General</t>
+  </si>
+  <si>
+    <t>Animar, Soul of Elements</t>
+  </si>
+  <si>
+    <t>MB1</t>
+  </si>
+  <si>
+    <t>Rejuvenating Springs</t>
+  </si>
+  <si>
+    <t>Training Center</t>
+  </si>
+  <si>
+    <t>Jace, Memory Adept</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>Ponder</t>
+  </si>
+  <si>
+    <t>Esika's Chariot</t>
+  </si>
+  <si>
+    <t>Riverglide Pathway</t>
+  </si>
+  <si>
+    <t>Rankle, Master of Pranks</t>
+  </si>
+  <si>
+    <t>Undergrowth Stadium</t>
+  </si>
+  <si>
+    <t>Heritage Druid</t>
+  </si>
+  <si>
+    <t>Chevill, Bane of Monsters</t>
+  </si>
+  <si>
+    <t>Mental Misstep</t>
+  </si>
+  <si>
+    <t>NPH</t>
+  </si>
+  <si>
+    <t>Thalia, Heretic Cathar</t>
+  </si>
+  <si>
+    <t>Growth Spiral (JP)</t>
+  </si>
+  <si>
+    <t>Etched</t>
+  </si>
+  <si>
+    <t>STA</t>
+  </si>
+  <si>
+    <t>Nicol Bolas, God-Pharaoh</t>
+  </si>
+  <si>
+    <t>The Gitrog Monster</t>
+  </si>
+  <si>
+    <t>SOI</t>
+  </si>
+  <si>
+    <t>Tergrid, God of Fright</t>
+  </si>
+  <si>
+    <t>Skullclamp</t>
+  </si>
+  <si>
+    <t>Wandering Archaic</t>
+  </si>
+  <si>
+    <t>Kaldra Compleat</t>
+  </si>
+  <si>
+    <t>Thunderhawk Gunship</t>
+  </si>
+  <si>
+    <t>Angel of Destiny</t>
+  </si>
+  <si>
+    <t>Triplicate Titan</t>
+  </si>
+  <si>
+    <t>Viven, Monsters' Adovocate</t>
+  </si>
+  <si>
+    <t>Lim-Dul's Vault</t>
+  </si>
+  <si>
+    <t>Blightstep Pathway</t>
+  </si>
+  <si>
+    <t>Lukka, Coppercoat Outcast</t>
+  </si>
+  <si>
+    <t>Cragcrown Pathway</t>
+  </si>
+  <si>
+    <t>Tezzeret, Betrayer of Flesh</t>
+  </si>
+  <si>
+    <t>Sun Titan</t>
+  </si>
+  <si>
+    <t>Mind's Desire (JP)</t>
+  </si>
+  <si>
+    <t>Reshape the Earth</t>
+  </si>
+  <si>
+    <t>Hellkite Courser</t>
+  </si>
+  <si>
+    <t>Celestial Colonnade</t>
+  </si>
+  <si>
+    <t>Rings of Brighthearth</t>
+  </si>
+  <si>
+    <t>Iymrith, Desert Doom</t>
+  </si>
+  <si>
+    <t>Hidetsugu Consumes All</t>
+  </si>
+  <si>
+    <t>Avenger of Zendikar</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
+  </si>
+  <si>
+    <t>PF19</t>
+  </si>
+  <si>
+    <t>Sokenzan, Crucible of Defiance</t>
+  </si>
+  <si>
+    <t>Bogardan Hellkite</t>
+  </si>
+  <si>
+    <t>Kaya, Geist Hunter</t>
+  </si>
+  <si>
+    <t>Turntimber Symbiosis</t>
+  </si>
+  <si>
+    <t>Tempting Contract</t>
+  </si>
+  <si>
+    <t>Phyrexian Triniform</t>
+  </si>
+  <si>
+    <t>Smokestack</t>
+  </si>
+  <si>
+    <t>Anya, Merciless Angel</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>Academy Manufactor</t>
+  </si>
+  <si>
+    <t>Sphinx of the Second Sun</t>
+  </si>
+  <si>
+    <t>War Room</t>
+  </si>
+  <si>
+    <t>Increasing Vengeance</t>
+  </si>
+  <si>
+    <t>Shadrix Silverquill</t>
+  </si>
+  <si>
+    <t>Wastes</t>
+  </si>
+  <si>
+    <t>Primal Command</t>
+  </si>
+  <si>
+    <t>Muldrotha, the Gravetide</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>Needleverge Pathway</t>
+  </si>
+  <si>
+    <t>Karazikar, the Eye Tyrant</t>
+  </si>
+  <si>
+    <t>General Kudro of Drannith</t>
+  </si>
+  <si>
+    <t>Akroma. Vision of Ixidor</t>
+  </si>
+  <si>
+    <t>Dragonlord Silumgar</t>
+  </si>
+  <si>
+    <t>Spellskite</t>
+  </si>
+  <si>
+    <t>MM2</t>
+  </si>
+  <si>
+    <t>The Tarrasque</t>
+  </si>
+  <si>
+    <t>Dragonlord Ojutai</t>
+  </si>
+  <si>
+    <t>Lynde, Cheerful Tormentor</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>Grand Arbiter Augustin IV</t>
+  </si>
+  <si>
+    <t>Reckoner Bankbuster</t>
+  </si>
+  <si>
+    <t>Squee, Goblin Nabob</t>
+  </si>
+  <si>
+    <t>March of Otherworldy Light</t>
+  </si>
+  <si>
+    <t>Garruk, Cursed Huntsman</t>
+  </si>
+  <si>
+    <t>Conduit of Ruin</t>
+  </si>
+  <si>
+    <t>BFZ</t>
+  </si>
+  <si>
+    <t>Scourge of Valkas</t>
+  </si>
+  <si>
+    <t>Negate (JP)</t>
+  </si>
+  <si>
+    <t>Haven of the Spirit Dragon</t>
+  </si>
+  <si>
+    <t>Hofri, Ghostforge</t>
+  </si>
+  <si>
+    <t>Thrumming Stone</t>
+  </si>
+  <si>
+    <t>Leyline Tyrant</t>
+  </si>
+  <si>
+    <t>Notion Thief</t>
+  </si>
+  <si>
+    <t>ZNC</t>
+  </si>
+  <si>
+    <t>Basilisk Collar</t>
+  </si>
+  <si>
+    <t>Nettlecyst</t>
+  </si>
+  <si>
+    <t>Bloodbraid Elf</t>
+  </si>
+  <si>
+    <t>Metalwork Colossus</t>
+  </si>
+  <si>
+    <t>Sicarian Infiltrator</t>
+  </si>
+  <si>
+    <t>Nashi, Moon Sage's Scion</t>
+  </si>
+  <si>
+    <t>Kamahl, Heart of Krosa</t>
+  </si>
+  <si>
+    <t>Staff of Domination</t>
+  </si>
+  <si>
+    <t>Space Marine Devestator</t>
+  </si>
+  <si>
+    <t>Enduring Angel</t>
+  </si>
+  <si>
+    <t>Gods Willing (JP)</t>
+  </si>
+  <si>
+    <t>Skyclave Relic</t>
+  </si>
+  <si>
+    <t>Village Rites (JP)</t>
+  </si>
+  <si>
+    <t>Halana and Alena, Partners</t>
+  </si>
+  <si>
+    <t>Eradicator Valkyrie</t>
+  </si>
+  <si>
+    <t>Invoke Despair</t>
+  </si>
+  <si>
+    <t>The Celestus</t>
+  </si>
+  <si>
+    <t>Brudiclad, Telchor Engineer</t>
+  </si>
+  <si>
+    <t>Obeka, Brute Chronologist</t>
+  </si>
+  <si>
+    <t>Door to Nothingness</t>
+  </si>
+  <si>
+    <t>HOP</t>
+  </si>
+  <si>
+    <t>Elite Spellbinder</t>
+  </si>
+  <si>
+    <t>Urza's Rage (JP)</t>
+  </si>
+  <si>
+    <t>Nethroi, Apex of Death</t>
+  </si>
+  <si>
+    <t>Mishra's Factory</t>
+  </si>
+  <si>
+    <t>Cosmos Elixer</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>Lightning Helix</t>
+  </si>
+  <si>
+    <t>Sanguinary Priest</t>
+  </si>
+  <si>
+    <t>Stonecoil Serpent</t>
+  </si>
+  <si>
+    <t>Angel of Suffering</t>
+  </si>
+  <si>
+    <t>Duress (JP)</t>
+  </si>
+  <si>
+    <t>Siege Rhino</t>
+  </si>
+  <si>
+    <t>Tamiyo, Compeated Sage</t>
+  </si>
+  <si>
+    <t>Hullbreacher</t>
+  </si>
+  <si>
+    <t>Nissa of Shadowed  Boughs</t>
+  </si>
+  <si>
+    <t>Idol of Oblivion</t>
+  </si>
+  <si>
+    <t>Eternal Scourge</t>
+  </si>
+  <si>
+    <t>EMN</t>
+  </si>
+  <si>
+    <t>Shivan Dragon</t>
+  </si>
+  <si>
+    <t>Harmonize (JP)</t>
+  </si>
+  <si>
+    <t>Spirit-Sister's Call</t>
+  </si>
+  <si>
+    <t>Empowered Autogenerator</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>Icingdeath, Frost Tyrant</t>
+  </si>
+  <si>
+    <t>Titania, Protector of Argoth</t>
+  </si>
+  <si>
+    <t>Callidus Assassin</t>
+  </si>
+  <si>
+    <t>Dragonmaster Outcast</t>
+  </si>
+  <si>
+    <t>Jocob Hauken, Inspector</t>
+  </si>
+  <si>
+    <t>Dragon's Hoard</t>
+  </si>
+  <si>
+    <t>Nahiri, the Harbinger</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>Diabolic Tutor</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>Lord of the Forsaken</t>
+  </si>
+  <si>
+    <t>Primal Adversary</t>
+  </si>
+  <si>
+    <t>Geyadrone Dihada</t>
+  </si>
+  <si>
+    <t>Hooded Hydra</t>
+  </si>
+  <si>
+    <t>Lin Sivvi, Defiant Hero</t>
+  </si>
+  <si>
+    <t>Gyome, Master Chef</t>
+  </si>
+  <si>
+    <t>Wild Mongrel</t>
+  </si>
+  <si>
+    <t>Narset of the Ancient Way</t>
+  </si>
+  <si>
+    <t>The Book of Vile Darkness</t>
+  </si>
+  <si>
+    <t>Harness Infinity</t>
+  </si>
+  <si>
+    <t>Eye of Vecna</t>
+  </si>
+  <si>
+    <t>Phabine, Boss's Confidant</t>
+  </si>
+  <si>
+    <t>NCC</t>
+  </si>
+  <si>
+    <t>Ral Zarek</t>
+  </si>
+  <si>
+    <t>Dakkon, Shadow Slayer</t>
+  </si>
+  <si>
+    <t>Pithing Needle</t>
+  </si>
+  <si>
+    <t>The Biblioplex</t>
+  </si>
+  <si>
+    <t>Soulfire Eruption</t>
+  </si>
+  <si>
+    <t>Illuna, Apex of Wishes</t>
+  </si>
+  <si>
+    <t>Seraphic Greatsword</t>
+  </si>
+  <si>
+    <t>Horizon Stone</t>
+  </si>
+  <si>
+    <t>Questing Phelddagrif</t>
+  </si>
+  <si>
+    <t>March of Wretched Sorrow</t>
+  </si>
+  <si>
+    <t>Thrill of Possibility (JP)</t>
+  </si>
+  <si>
+    <t>Zephyrim</t>
+  </si>
+  <si>
+    <t>Faceless Haven</t>
+  </si>
+  <si>
+    <t>Outlaws' Merriment</t>
+  </si>
+  <si>
+    <t>Exterminatus</t>
+  </si>
+  <si>
+    <t>Ob Nixilis, Reignited</t>
+  </si>
+  <si>
+    <t>Jerren, Corrupted Bishop</t>
+  </si>
+  <si>
+    <t>Tradewind Rider</t>
+  </si>
+  <si>
+    <t>Yannik, Scavenging Sentinel</t>
+  </si>
+  <si>
+    <t>Consuming Blob</t>
+  </si>
+  <si>
+    <t>Threefold Signal</t>
+  </si>
+  <si>
+    <t>Kathril, Aspect Warper</t>
+  </si>
+  <si>
+    <t>Vrondiss, Rage of Ancients</t>
+  </si>
+  <si>
+    <t>Sea Gate Stormcladder</t>
+  </si>
+  <si>
+    <t>Invoked the Ancients</t>
+  </si>
+  <si>
+    <t>Space Marine Scout</t>
+  </si>
+  <si>
+    <t>Revitalize (JP)</t>
+  </si>
+  <si>
+    <t>Defenders of Humanity</t>
+  </si>
+  <si>
+    <t>Kelsien, the Plague</t>
+  </si>
+  <si>
+    <t>Sister Repentia</t>
+  </si>
+  <si>
+    <t>Tyrnn, Champion of Freedom</t>
+  </si>
+  <si>
+    <t>Eater of Virtue</t>
+  </si>
+  <si>
+    <t>Pramikon, Sky Rampart</t>
+  </si>
+  <si>
+    <t>Verdant Command</t>
+  </si>
+  <si>
+    <t>Storvald, Frost Giant Jarl</t>
+  </si>
+  <si>
+    <t>For the Emperor!</t>
+  </si>
+  <si>
+    <t>Galea, Kindler of Hope</t>
+  </si>
+  <si>
+    <t>Nihiloor</t>
+  </si>
+  <si>
+    <t>March of Reckless Joy</t>
+  </si>
+  <si>
+    <t>Claim the Firstborn (JP)</t>
+  </si>
+  <si>
+    <t>Pristine Angel</t>
+  </si>
+  <si>
+    <t>Search the Count's Castle</t>
+  </si>
+  <si>
+    <t>Sanctuary Blade</t>
+  </si>
+  <si>
+    <t>Silvar, Devourer of the Free</t>
+  </si>
+  <si>
+    <t>Apex of Power</t>
+  </si>
+  <si>
+    <t>Throne of Makindi</t>
+  </si>
+  <si>
+    <t>Red Dragon</t>
+  </si>
+  <si>
+    <t>Defiant Strike (JP)</t>
+  </si>
+  <si>
+    <t>Agonizing Remorse (JP)</t>
+  </si>
+  <si>
+    <t>Elsha of the Infinite</t>
+  </si>
+  <si>
+    <t>Kros, Defense Contractor</t>
+  </si>
+  <si>
+    <t>Realm-Cloaked Giant</t>
+  </si>
+  <si>
+    <t>Kaima, the Fractured Calm</t>
+  </si>
+  <si>
+    <t>NEC</t>
+  </si>
+  <si>
+    <t>Sevinne, the Chronoclasm</t>
+  </si>
+  <si>
+    <t>Crucible of the Spirit Dragon</t>
+  </si>
+  <si>
+    <t>Black Dragon</t>
+  </si>
+  <si>
+    <t>Kyodai, Soul of Kamigawa</t>
+  </si>
+  <si>
+    <t>Green Dragon</t>
+  </si>
+  <si>
+    <t>Divine Gambit (JP)</t>
+  </si>
+  <si>
+    <t>Cybernetica Datasmith</t>
+  </si>
+  <si>
+    <t>Treasure Chest</t>
+  </si>
+  <si>
+    <t>Crawling Barrens</t>
+  </si>
+  <si>
+    <t>Invoke the Winds</t>
+  </si>
+  <si>
+    <t>Mortify</t>
+  </si>
+  <si>
+    <t>Desolation Twin</t>
+  </si>
+  <si>
+    <t>Blue Dragon</t>
+  </si>
+  <si>
+    <t>Exotic Orchard</t>
+  </si>
+  <si>
+    <t>Chaos Wand</t>
+  </si>
+  <si>
+    <t>Nevinyrral's Disk</t>
+  </si>
+  <si>
+    <t>Adventurous Impulse (JP)</t>
+  </si>
+  <si>
+    <t>Seer's Sundial</t>
+  </si>
+  <si>
+    <t>White Dragon</t>
+  </si>
+  <si>
+    <t>Dungeon Descent</t>
+  </si>
+  <si>
+    <t>Urza's Blueprint</t>
+  </si>
+  <si>
+    <t>Myriad Construct</t>
+  </si>
+  <si>
+    <t>Bladegriff Prototype</t>
+  </si>
+  <si>
+    <t>Arco-Flagellant</t>
+  </si>
+  <si>
+    <t>Braids, Cabal Minion</t>
+  </si>
+  <si>
+    <t>Grey Knight Paragon</t>
+  </si>
+  <si>
+    <t>Prismaris Chaplain</t>
+  </si>
+  <si>
+    <t>Sparkhunter Masticore</t>
+  </si>
+  <si>
+    <t>M21</t>
+  </si>
+  <si>
+    <t>Skirge Familiar</t>
+  </si>
+  <si>
+    <t>Sorcerous Spyglass</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Scalding Tarn</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>ZNE</t>
-  </si>
-  <si>
-    <t>Wrenn and Six</t>
-  </si>
-  <si>
-    <t>2X2</t>
-  </si>
-  <si>
-    <t>Raffine's Tower</t>
-  </si>
-  <si>
-    <t>SNC</t>
-  </si>
-  <si>
-    <t>The Meathook Massacre</t>
-  </si>
-  <si>
-    <t>MID</t>
-  </si>
-  <si>
-    <t>Necropotence</t>
-  </si>
-  <si>
-    <t>Deathrite Shaman</t>
-  </si>
-  <si>
-    <t>Mothra, Supersonic Queen</t>
-  </si>
-  <si>
-    <t>IKO</t>
-  </si>
-  <si>
-    <t>Urza's Saga</t>
-  </si>
-  <si>
-    <t>MH2</t>
-  </si>
-  <si>
-    <t>The Ozolith</t>
-  </si>
-  <si>
-    <t>Ulamog, the Infinite Gyre</t>
-  </si>
-  <si>
-    <t>Bitterblossom</t>
-  </si>
-  <si>
-    <t>Exploration</t>
-  </si>
-  <si>
-    <t>2XM</t>
-  </si>
-  <si>
-    <t>Craterhoof Behemoth</t>
-  </si>
-  <si>
-    <t>SLD</t>
-  </si>
-  <si>
-    <t>The Wandering Emporer</t>
-  </si>
-  <si>
-    <t>NEO</t>
-  </si>
-  <si>
-    <t>Teferi's Protection</t>
-  </si>
-  <si>
-    <t>Adrix and Nev, Twincasters</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>Shatterskull Smashing</t>
-  </si>
-  <si>
-    <t>ZNR</t>
-  </si>
-  <si>
-    <t>Food Chain</t>
-  </si>
-  <si>
-    <t>Marneus Calgar</t>
-  </si>
-  <si>
-    <t>40K</t>
-  </si>
-  <si>
-    <t>Ketria Triome</t>
-  </si>
-  <si>
-    <t>Shark Typhoon</t>
-  </si>
-  <si>
-    <t>Walking Ballista</t>
-  </si>
-  <si>
-    <t>Takenuma, Abandoned Mire</t>
-  </si>
-  <si>
-    <t>Arclight Phoenix</t>
-  </si>
-  <si>
-    <t>Emry, Lurker of the Loch</t>
-  </si>
-  <si>
-    <t>Khalni Hydra</t>
-  </si>
-  <si>
-    <t>PLIST</t>
-  </si>
-  <si>
-    <t>Commander's Plate</t>
-  </si>
-  <si>
-    <t>Grief</t>
-  </si>
-  <si>
-    <t>Sheoldred, Whispering One</t>
-  </si>
-  <si>
-    <t>PNPH</t>
-  </si>
-  <si>
-    <t>Elspeth, Sun's Champion</t>
-  </si>
-  <si>
-    <t>Archon of Cruelty</t>
-  </si>
-  <si>
-    <t>Minsc &amp; Boo, Timeless Heroes</t>
-  </si>
-  <si>
-    <t>CLB</t>
-  </si>
-  <si>
-    <t>Cultivator Colossus</t>
-  </si>
-  <si>
-    <t>VOW</t>
-  </si>
-  <si>
-    <t>Crackle with Power</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>Lotus Field</t>
-  </si>
-  <si>
-    <t>Ancient Greenwarden</t>
-  </si>
-  <si>
-    <t>Esika, God of the Tree</t>
-  </si>
-  <si>
-    <t>KHM</t>
-  </si>
-  <si>
-    <t>Monastery Mentor</t>
-  </si>
-  <si>
-    <t>Haunted Ridge</t>
-  </si>
-  <si>
-    <t>Ashaya, Soul of the Wild</t>
-  </si>
-  <si>
-    <t>Unlicensed Hearse</t>
-  </si>
-  <si>
-    <t>Yarok, the Desecrated</t>
-  </si>
-  <si>
-    <t>M20</t>
-  </si>
-  <si>
-    <t>Vorinclex, Voice of Hunger</t>
-  </si>
-  <si>
-    <t>Birthing Pod</t>
-  </si>
-  <si>
-    <t>Aesi, Tyrant of Gyre Strait</t>
-  </si>
-  <si>
-    <t>Apex Devastator</t>
-  </si>
-  <si>
-    <t>Jin-Gitaxias, Core Augur</t>
-  </si>
-  <si>
-    <t>Beledros Witherbloom</t>
-  </si>
-  <si>
-    <t>Rodan, Titan of Winged Fury</t>
-  </si>
-  <si>
-    <t>Murktide Regent</t>
-  </si>
-  <si>
-    <t>Klauth, Unrivaled Ancient</t>
-  </si>
-  <si>
-    <t>AFC</t>
-  </si>
-  <si>
-    <t>Glimpse of Nature</t>
-  </si>
-  <si>
-    <t>Brazen Borrower</t>
-  </si>
-  <si>
-    <t>ELD</t>
-  </si>
-  <si>
-    <t>Lolth, Spider Queen</t>
-  </si>
-  <si>
-    <t>AFR</t>
-  </si>
-  <si>
-    <t>Prosper, Tome-Bound</t>
-  </si>
-  <si>
-    <t>Luminous Broodmoth</t>
-  </si>
-  <si>
-    <t>The Golden Throne</t>
-  </si>
-  <si>
-    <t>Vexilus Praetor</t>
-  </si>
-  <si>
-    <t>Jin-Gitaxias, Progress Tyrant</t>
-  </si>
-  <si>
-    <t>Vedalken Orrery</t>
-  </si>
-  <si>
-    <t>Chatterfang, Squirrel General</t>
-  </si>
-  <si>
-    <t>Animar, Soul of Elements</t>
-  </si>
-  <si>
-    <t>MB1</t>
-  </si>
-  <si>
-    <t>Rejuvenating Springs</t>
-  </si>
-  <si>
-    <t>Training Center</t>
-  </si>
-  <si>
-    <t>Jace, Memory Adept</t>
-  </si>
-  <si>
-    <t>M13</t>
-  </si>
-  <si>
-    <t>Ponder</t>
-  </si>
-  <si>
-    <t>Esika's Chariot</t>
-  </si>
-  <si>
-    <t>Riverglide Pathway</t>
-  </si>
-  <si>
-    <t>Rankle, Master of Pranks</t>
-  </si>
-  <si>
-    <t>Undergrowth Stadium</t>
-  </si>
-  <si>
-    <t>Heritage Druid</t>
-  </si>
-  <si>
-    <t>Chevill, Bane of Monsters</t>
-  </si>
-  <si>
-    <t>Mental Misstep</t>
-  </si>
-  <si>
-    <t>NPH</t>
-  </si>
-  <si>
-    <t>Thalia, Heretic Cathar</t>
-  </si>
-  <si>
-    <t>Growth Spiral (JP)</t>
-  </si>
-  <si>
-    <t>Etched</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
-    <t>Nicol Bolas, God-Pharaoh</t>
-  </si>
-  <si>
-    <t>The Gitrog Monster</t>
-  </si>
-  <si>
-    <t>SOI</t>
-  </si>
-  <si>
-    <t>Tergrid, God of Fright</t>
-  </si>
-  <si>
-    <t>Skullclamp</t>
-  </si>
-  <si>
-    <t>Wandering Archaic</t>
-  </si>
-  <si>
-    <t>Kaldra Compleat</t>
-  </si>
-  <si>
-    <t>Thunderhawk Gunship</t>
-  </si>
-  <si>
-    <t>Angel of Destiny</t>
-  </si>
-  <si>
-    <t>Triplicate Titan</t>
-  </si>
-  <si>
-    <t>Viven, Monsters' Adovocate</t>
-  </si>
-  <si>
-    <t>Lim-Dul's Vault</t>
-  </si>
-  <si>
-    <t>Blightstep Pathway</t>
-  </si>
-  <si>
-    <t>Lukka, Coppercoat Outcast</t>
-  </si>
-  <si>
-    <t>Cragcrown Pathway</t>
-  </si>
-  <si>
-    <t>Tezzeret, Betrayer of Flesh</t>
-  </si>
-  <si>
-    <t>Sun Titan</t>
-  </si>
-  <si>
-    <t>Mind's Desire (JP)</t>
-  </si>
-  <si>
-    <t>Reshape the Earth</t>
-  </si>
-  <si>
-    <t>Hellkite Courser</t>
-  </si>
-  <si>
-    <t>Celestial Colonnade</t>
-  </si>
-  <si>
-    <t>Rings of Brighthearth</t>
-  </si>
-  <si>
-    <t>Iymrith, Desert Doom</t>
-  </si>
-  <si>
-    <t>Hidetsugu Consumes All</t>
-  </si>
-  <si>
-    <t>Avenger of Zendikar</t>
-  </si>
-  <si>
-    <t>Lightning Bolt</t>
-  </si>
-  <si>
-    <t>PF19</t>
-  </si>
-  <si>
-    <t>Sokenzan, Crucible of Defiance</t>
-  </si>
-  <si>
-    <t>Bogardan Hellkite</t>
-  </si>
-  <si>
-    <t>Kaya, Geist Hunter</t>
-  </si>
-  <si>
-    <t>Turntimber Symbiosis</t>
-  </si>
-  <si>
-    <t>Tempting Contract</t>
-  </si>
-  <si>
-    <t>Phyrexian Triniform</t>
-  </si>
-  <si>
-    <t>Smokestack</t>
-  </si>
-  <si>
-    <t>Anya, Merciless Angel</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>Academy Manufactor</t>
-  </si>
-  <si>
-    <t>Sphinx of the Second Sun</t>
-  </si>
-  <si>
-    <t>War Room</t>
-  </si>
-  <si>
-    <t>Increasing Vengeance</t>
-  </si>
-  <si>
-    <t>Shadrix Silverquill</t>
-  </si>
-  <si>
-    <t>Wastes</t>
-  </si>
-  <si>
-    <t>Primal Command</t>
-  </si>
-  <si>
-    <t>Muldrotha, the Gravetide</t>
-  </si>
-  <si>
-    <t>DOM</t>
-  </si>
-  <si>
-    <t>Needleverge Pathway</t>
-  </si>
-  <si>
-    <t>Karazikar, the Eye Tyrant</t>
-  </si>
-  <si>
-    <t>General Kudro of Drannith</t>
-  </si>
-  <si>
-    <t>Akroma. Vision of Ixidor</t>
-  </si>
-  <si>
-    <t>Dragonlord Silumgar</t>
-  </si>
-  <si>
-    <t>Spellskite</t>
-  </si>
-  <si>
-    <t>MM2</t>
-  </si>
-  <si>
-    <t>The Tarrasque</t>
-  </si>
-  <si>
-    <t>Dragonlord Ojutai</t>
-  </si>
-  <si>
-    <t>Lynde, Cheerful Tormentor</t>
-  </si>
-  <si>
-    <t>MIC</t>
-  </si>
-  <si>
-    <t>Grand Arbiter Augustin IV</t>
-  </si>
-  <si>
-    <t>Reckoner Bankbuster</t>
-  </si>
-  <si>
-    <t>Squee, Goblin Nabob</t>
-  </si>
-  <si>
-    <t>March of Otherworldy Light</t>
-  </si>
-  <si>
-    <t>Garruk, Cursed Huntsman</t>
-  </si>
-  <si>
-    <t>Conduit of Ruin</t>
-  </si>
-  <si>
-    <t>BFZ</t>
-  </si>
-  <si>
-    <t>Scourge of Valkas</t>
-  </si>
-  <si>
-    <t>Negate (JP)</t>
-  </si>
-  <si>
-    <t>Haven of the Spirit Dragon</t>
-  </si>
-  <si>
-    <t>Hofri, Ghostforge</t>
-  </si>
-  <si>
-    <t>Thrumming Stone</t>
-  </si>
-  <si>
-    <t>Leyline Tyrant</t>
-  </si>
-  <si>
-    <t>Notion Thief</t>
-  </si>
-  <si>
-    <t>ZNC</t>
-  </si>
-  <si>
-    <t>Basilisk Collar</t>
-  </si>
-  <si>
-    <t>Nettlecyst</t>
-  </si>
-  <si>
-    <t>Bloodbraid Elf</t>
-  </si>
-  <si>
-    <t>Metalwork Colossus</t>
-  </si>
-  <si>
-    <t>Sicarian Infiltrator</t>
-  </si>
-  <si>
-    <t>Nashi, Moon Sage's Scion</t>
-  </si>
-  <si>
-    <t>Kamahl, Heart of Krosa</t>
-  </si>
-  <si>
-    <t>Staff of Domination</t>
-  </si>
-  <si>
-    <t>Space Marine Devestator</t>
-  </si>
-  <si>
-    <t>Enduring Angel</t>
-  </si>
-  <si>
-    <t>Gods Willing (JP)</t>
-  </si>
-  <si>
-    <t>Skyclave Relic</t>
-  </si>
-  <si>
-    <t>Village Rites (JP)</t>
-  </si>
-  <si>
-    <t>Halana and Alena, Partners</t>
-  </si>
-  <si>
-    <t>Eradicator Valkyrie</t>
-  </si>
-  <si>
-    <t>Invoke Despair</t>
-  </si>
-  <si>
-    <t>The Celestus</t>
-  </si>
-  <si>
-    <t>Brudiclad, Telchor Engineer</t>
-  </si>
-  <si>
-    <t>Obeka, Brute Chronologist</t>
-  </si>
-  <si>
-    <t>Door to Nothingness</t>
-  </si>
-  <si>
-    <t>HOP</t>
-  </si>
-  <si>
-    <t>Elite Spellbinder</t>
-  </si>
-  <si>
-    <t>Urza's Rage (JP)</t>
-  </si>
-  <si>
-    <t>Nethroi, Apex of Death</t>
-  </si>
-  <si>
-    <t>Mishra's Factory</t>
-  </si>
-  <si>
-    <t>Cosmos Elixer</t>
-  </si>
-  <si>
-    <t>Genesis</t>
-  </si>
-  <si>
-    <t>Lightning Helix</t>
-  </si>
-  <si>
-    <t>Sanguinary Priest</t>
-  </si>
-  <si>
-    <t>Stonecoil Serpent</t>
-  </si>
-  <si>
-    <t>Angel of Suffering</t>
-  </si>
-  <si>
-    <t>Duress (JP)</t>
-  </si>
-  <si>
-    <t>Siege Rhino</t>
-  </si>
-  <si>
-    <t>Tamiyo, Compeated Sage</t>
-  </si>
-  <si>
-    <t>Hullbreacher</t>
-  </si>
-  <si>
-    <t>Nissa of Shadowed  Boughs</t>
-  </si>
-  <si>
-    <t>Idol of Oblivion</t>
-  </si>
-  <si>
-    <t>Eternal Scourge</t>
-  </si>
-  <si>
-    <t>EMN</t>
-  </si>
-  <si>
-    <t>Shivan Dragon</t>
-  </si>
-  <si>
-    <t>Harmonize (JP)</t>
-  </si>
-  <si>
-    <t>Spirit-Sister's Call</t>
-  </si>
-  <si>
-    <t>Empowered Autogenerator</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>Icingdeath, Frost Tyrant</t>
-  </si>
-  <si>
-    <t>Titania, Protector of Argoth</t>
-  </si>
-  <si>
-    <t>Callidus Assassin</t>
-  </si>
-  <si>
-    <t>Dragonmaster Outcast</t>
-  </si>
-  <si>
-    <t>Jocob Hauken, Inspector</t>
-  </si>
-  <si>
-    <t>Dragon's Hoard</t>
-  </si>
-  <si>
-    <t>Nahiri, the Harbinger</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>Diabolic Tutor</t>
-  </si>
-  <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>Lord of the Forsaken</t>
-  </si>
-  <si>
-    <t>Primal Adversary</t>
-  </si>
-  <si>
-    <t>Geyadrone Dihada</t>
-  </si>
-  <si>
-    <t>Hooded Hydra</t>
-  </si>
-  <si>
-    <t>Lin Sivvi, Defiant Hero</t>
-  </si>
-  <si>
-    <t>Gyome, Master Chef</t>
-  </si>
-  <si>
-    <t>Wild Mongrel</t>
-  </si>
-  <si>
-    <t>Narset of the Ancient Way</t>
-  </si>
-  <si>
-    <t>The Book of Vile Darkness</t>
-  </si>
-  <si>
-    <t>Harness Infinity</t>
-  </si>
-  <si>
-    <t>Eye of Vecna</t>
-  </si>
-  <si>
-    <t>Phabine, Boss's Confidant</t>
-  </si>
-  <si>
-    <t>NCC</t>
-  </si>
-  <si>
-    <t>Ral Zarek</t>
-  </si>
-  <si>
-    <t>Dakkon, Shadow Slayer</t>
-  </si>
-  <si>
-    <t>Pithing Needle</t>
-  </si>
-  <si>
-    <t>The Biblioplex</t>
-  </si>
-  <si>
-    <t>Soulfire Eruption</t>
-  </si>
-  <si>
-    <t>Illuna, Apex of Wishes</t>
-  </si>
-  <si>
-    <t>Seraphic Greatsword</t>
-  </si>
-  <si>
-    <t>Horizon Stone</t>
-  </si>
-  <si>
-    <t>Questing Phelddagrif</t>
-  </si>
-  <si>
-    <t>March of Wretched Sorrow</t>
-  </si>
-  <si>
-    <t>Thrill of Possibility (JP)</t>
-  </si>
-  <si>
-    <t>Zephyrim</t>
-  </si>
-  <si>
-    <t>Faceless Haven</t>
-  </si>
-  <si>
-    <t>Outlaws' Merriment</t>
-  </si>
-  <si>
-    <t>Exterminatus</t>
-  </si>
-  <si>
-    <t>Ob Nixilis, Reignited</t>
-  </si>
-  <si>
-    <t>Jerren, Corrupted Bishop</t>
-  </si>
-  <si>
-    <t>Tradewind Rider</t>
-  </si>
-  <si>
-    <t>Yannik, Scavenging Sentinel</t>
-  </si>
-  <si>
-    <t>Consuming Blob</t>
-  </si>
-  <si>
-    <t>Threefold Signal</t>
-  </si>
-  <si>
-    <t>Kathril, Aspect Warper</t>
-  </si>
-  <si>
-    <t>Vrondiss, Rage of Ancients</t>
-  </si>
-  <si>
-    <t>Sea Gate Stormcladder</t>
-  </si>
-  <si>
-    <t>Invoked the Ancients</t>
-  </si>
-  <si>
-    <t>Space Marine Scout</t>
-  </si>
-  <si>
-    <t>Revitalize (JP)</t>
-  </si>
-  <si>
-    <t>Defenders of Humanity</t>
-  </si>
-  <si>
-    <t>Kelsien, the Plague</t>
-  </si>
-  <si>
-    <t>Sister Repentia</t>
-  </si>
-  <si>
-    <t>Tyrnn, Champion of Freedom</t>
-  </si>
-  <si>
-    <t>Eater of Virtue</t>
-  </si>
-  <si>
-    <t>Pramikon, Sky Rampart</t>
-  </si>
-  <si>
-    <t>Verdant Command</t>
-  </si>
-  <si>
-    <t>Storvald, Frost Giant Jarl</t>
-  </si>
-  <si>
-    <t>For the Emperor!</t>
-  </si>
-  <si>
-    <t>Galea, Kindler of Hope</t>
-  </si>
-  <si>
-    <t>Nihiloor</t>
-  </si>
-  <si>
-    <t>March of Reckless Joy</t>
-  </si>
-  <si>
-    <t>Claim the Firstborn (JP)</t>
-  </si>
-  <si>
-    <t>Pristine Angel</t>
-  </si>
-  <si>
-    <t>Search the Count's Castle</t>
-  </si>
-  <si>
-    <t>Sanctuary Blade</t>
-  </si>
-  <si>
-    <t>Silvar, Devourer of the Free</t>
-  </si>
-  <si>
-    <t>Apex of Power</t>
-  </si>
-  <si>
-    <t>Throne of Makindi</t>
-  </si>
-  <si>
-    <t>Red Dragon</t>
-  </si>
-  <si>
-    <t>Defiant Strike (JP)</t>
-  </si>
-  <si>
-    <t>Agonizing Remorse (JP)</t>
-  </si>
-  <si>
-    <t>Elsha of the Infinite</t>
-  </si>
-  <si>
-    <t>Kros, Defense Contractor</t>
-  </si>
-  <si>
-    <t>Realm-Cloaked Giant</t>
-  </si>
-  <si>
-    <t>Kaima, the Fractured Calm</t>
-  </si>
-  <si>
-    <t>NEC</t>
-  </si>
-  <si>
-    <t>Sevinne, the Chronoclasm</t>
-  </si>
-  <si>
-    <t>Crucible of the Spirit Dragon</t>
-  </si>
-  <si>
-    <t>Black Dragon</t>
-  </si>
-  <si>
-    <t>Kyodai, Soul of Kamigawa</t>
-  </si>
-  <si>
-    <t>Green Dragon</t>
-  </si>
-  <si>
-    <t>Divine Gambit (JP)</t>
-  </si>
-  <si>
-    <t>Cybernetica Datasmith</t>
-  </si>
-  <si>
-    <t>Treasure Chest</t>
-  </si>
-  <si>
-    <t>Crawling Barrens</t>
-  </si>
-  <si>
-    <t>Invoke the Winds</t>
-  </si>
-  <si>
-    <t>Mortify</t>
-  </si>
-  <si>
-    <t>Desolation Twin</t>
-  </si>
-  <si>
-    <t>Blue Dragon</t>
-  </si>
-  <si>
-    <t>Exotic Orchard</t>
-  </si>
-  <si>
-    <t>Chaos Wand</t>
-  </si>
-  <si>
-    <t>Nevinyrral's Disk</t>
-  </si>
-  <si>
-    <t>Adventurous Impulse (JP)</t>
-  </si>
-  <si>
-    <t>Seer's Sundial</t>
-  </si>
-  <si>
-    <t>White Dragon</t>
-  </si>
-  <si>
-    <t>Dungeon Descent</t>
-  </si>
-  <si>
-    <t>Urza's Blueprint</t>
-  </si>
-  <si>
-    <t>Myriad Construct</t>
-  </si>
-  <si>
-    <t>Bladegriff Prototype</t>
-  </si>
-  <si>
-    <t>Arco-Flagellant</t>
-  </si>
-  <si>
-    <t>Braids, Cabal Minion</t>
-  </si>
-  <si>
-    <t>Grey Knight Paragon</t>
-  </si>
-  <si>
-    <t>Prismaris Chaplain</t>
-  </si>
-  <si>
-    <t>Sparkhunter Masticore</t>
-  </si>
-  <si>
-    <t>M21</t>
-  </si>
-  <si>
-    <t>Skirge Familiar</t>
-  </si>
-  <si>
-    <t>Sorcerous Spyglass</t>
   </si>
   <si>
     <t>Moonsilver Spear</t>
@@ -1425,7 +1425,7 @@
   <dimension ref="A1:Z297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1440,8 @@
     <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="11" width="11.140625" style="1" customWidth="1"/>
     <col min="12" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1474,7 +1475,9 @@
       <c r="J1" s="3">
         <v>44917</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="3">
+        <v>44917</v>
+      </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1522,6 +1525,9 @@
       <c r="J2" s="4">
         <v>103.91</v>
       </c>
+      <c r="K2" s="4">
+        <v>103.91</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1554,19 +1560,22 @@
       <c r="J3" s="4">
         <v>77.2</v>
       </c>
+      <c r="K3" s="4">
+        <v>77.2</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="4">
         <v>64.62</v>
@@ -1586,10 +1595,13 @@
       <c r="J4" s="4">
         <v>65.989999999999995</v>
       </c>
+      <c r="K4" s="4">
+        <v>65.989999999999995</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>296</v>
@@ -1598,7 +1610,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4">
         <v>49.2</v>
@@ -1618,19 +1630,22 @@
       <c r="J5" s="4">
         <v>46</v>
       </c>
+      <c r="K5" s="4">
+        <v>46</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>292</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4">
         <v>40.67</v>
@@ -1650,10 +1665,13 @@
       <c r="J6" s="4">
         <v>44.45</v>
       </c>
+      <c r="K6" s="4">
+        <v>44.45</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>112</v>
@@ -1662,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4">
         <v>42.66</v>
@@ -1682,10 +1700,13 @@
       <c r="J7" s="4">
         <v>43.63</v>
       </c>
+      <c r="K7" s="4">
+        <v>43.63</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>1995</v>
@@ -1714,16 +1735,19 @@
       <c r="J8" s="4">
         <v>30.08</v>
       </c>
+      <c r="K8" s="4">
+        <v>30.08</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2012</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -1746,10 +1770,13 @@
       <c r="J9" s="4">
         <v>31.51</v>
       </c>
+      <c r="K9" s="4">
+        <v>31.51</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>371</v>
@@ -1758,7 +1785,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4">
         <v>29.02</v>
@@ -1778,10 +1805,13 @@
       <c r="J10" s="4">
         <v>29.38</v>
       </c>
+      <c r="K10" s="4">
+        <v>29.38</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>259</v>
@@ -1790,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4">
         <v>27.51</v>
@@ -1810,19 +1840,22 @@
       <c r="J11" s="4">
         <v>31.07</v>
       </c>
+      <c r="K11" s="4">
+        <v>31.07</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>237</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4">
         <v>24.21</v>
@@ -1842,10 +1875,13 @@
       <c r="J12" s="4">
         <v>24.4</v>
       </c>
+      <c r="K12" s="4">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -1854,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4">
         <v>23.6</v>
@@ -1874,10 +1910,13 @@
       <c r="J13" s="4">
         <v>23.76</v>
       </c>
+      <c r="K13" s="4">
+        <v>23.76</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1">
         <v>69</v>
@@ -1886,7 +1925,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="4">
         <v>20.5</v>
@@ -1906,10 +1945,13 @@
       <c r="J14" s="4">
         <v>23</v>
       </c>
+      <c r="K14" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>167</v>
@@ -1918,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4">
         <v>25.14</v>
@@ -1938,10 +1980,13 @@
       <c r="J15" s="4">
         <v>22.44</v>
       </c>
+      <c r="K15" s="4">
+        <v>22.44</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1">
         <v>375</v>
@@ -1950,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4">
         <v>20.03</v>
@@ -1970,10 +2015,13 @@
       <c r="J16" s="4">
         <v>22.11</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="4">
+        <v>22.11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>42</v>
@@ -1982,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4">
         <v>21.44</v>
@@ -2002,10 +2050,13 @@
       <c r="J17" s="4">
         <v>21.73</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="4">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1">
         <v>32</v>
@@ -2014,7 +2065,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4">
         <v>19.96</v>
@@ -2034,10 +2085,13 @@
       <c r="J18" s="4">
         <v>20.41</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="4">
+        <v>20.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1">
         <v>336</v>
@@ -2046,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4">
         <v>22.62</v>
@@ -2066,19 +2120,22 @@
       <c r="J19" s="4">
         <v>20.170000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="4">
+        <v>20.170000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>354</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4">
         <v>16.670000000000002</v>
@@ -2098,10 +2155,13 @@
       <c r="J20" s="4">
         <v>18.55</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="4">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>147</v>
@@ -2110,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21" s="4">
         <v>18.72</v>
@@ -2130,19 +2190,22 @@
       <c r="J21" s="4">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="4">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="4">
         <v>30.39</v>
@@ -2162,10 +2225,13 @@
       <c r="J22" s="4">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="4">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
         <v>310</v>
@@ -2174,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="4">
         <v>17.63</v>
@@ -2194,10 +2260,13 @@
       <c r="J23" s="4">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
         <v>2020</v>
@@ -2226,10 +2295,13 @@
       <c r="J24" s="4">
         <v>16.55</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="4">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1">
         <v>306</v>
@@ -2238,7 +2310,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="4">
         <v>17.170000000000002</v>
@@ -2258,19 +2330,22 @@
       <c r="J25" s="4">
         <v>16.02</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="4">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>416</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="4">
         <v>16.89</v>
@@ -2290,10 +2365,13 @@
       <c r="J26" s="4">
         <v>16.02</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="4">
+        <v>16.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1">
         <v>2018</v>
@@ -2322,16 +2400,19 @@
       <c r="J27" s="4">
         <v>14.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="4">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1">
         <v>2019</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>8</v>
@@ -2354,10 +2435,13 @@
       <c r="J28" s="4">
         <v>15.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="4">
+        <v>15.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1">
         <v>181</v>
@@ -2366,7 +2450,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="4">
         <v>16.11</v>
@@ -2386,10 +2470,13 @@
       <c r="J29" s="4">
         <v>15.07</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="4">
+        <v>15.07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
         <v>305</v>
@@ -2418,10 +2505,13 @@
       <c r="J30" s="4">
         <v>14.49</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="4">
+        <v>14.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1">
         <v>87</v>
@@ -2430,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="4">
         <v>13.11</v>
@@ -2450,19 +2540,22 @@
       <c r="J31" s="4">
         <v>14.96</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="4">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1">
         <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="4">
         <v>13.52</v>
@@ -2482,10 +2575,13 @@
       <c r="J32" s="4">
         <v>13.92</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="4">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1">
         <v>2013</v>
@@ -2514,10 +2610,13 @@
       <c r="J33" s="4">
         <v>13.91</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="4">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1">
         <v>75</v>
@@ -2526,7 +2625,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="4">
         <v>12.03</v>
@@ -2546,10 +2645,13 @@
       <c r="J34" s="4">
         <v>13.29</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="4">
+        <v>13.29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1">
         <v>285</v>
@@ -2558,7 +2660,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" s="4">
         <v>13.79</v>
@@ -2578,10 +2680,13 @@
       <c r="J35" s="4">
         <v>13.53</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="4">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="1">
         <v>195</v>
@@ -2590,7 +2695,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" s="4">
         <v>14.79</v>
@@ -2610,19 +2715,22 @@
       <c r="J36" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="1">
         <v>308</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="4">
         <v>13.94</v>
@@ -2642,16 +2750,19 @@
       <c r="J37" s="4">
         <v>13.37</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="4">
+        <v>13.37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1">
         <v>2023</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>8</v>
@@ -2674,10 +2785,13 @@
       <c r="J38" s="4">
         <v>12.12</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="4">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="1">
         <v>178</v>
@@ -2686,7 +2800,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="4">
         <v>11.16</v>
@@ -2706,10 +2820,13 @@
       <c r="J39" s="4">
         <v>12.75</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="4">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="1">
         <v>314</v>
@@ -2718,7 +2835,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="4">
         <v>14.26</v>
@@ -2738,10 +2855,13 @@
       <c r="J40" s="4">
         <v>13.08</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="4">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1">
         <v>25</v>
@@ -2750,7 +2870,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E41" s="4">
         <v>13.18</v>
@@ -2770,10 +2890,13 @@
       <c r="J41" s="4">
         <v>11.39</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="4">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="1">
         <v>263</v>
@@ -2782,7 +2905,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="4">
         <v>11.31</v>
@@ -2802,10 +2925,13 @@
       <c r="J42" s="4">
         <v>11.57</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="4">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1">
         <v>358</v>
@@ -2814,7 +2940,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="4">
         <v>11.19</v>
@@ -2834,19 +2960,22 @@
       <c r="J43" s="4">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="4">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="1">
         <v>246</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" s="4">
         <v>12.58</v>
@@ -2866,10 +2995,13 @@
       <c r="J44" s="4">
         <v>11.19</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="4">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1">
         <v>220</v>
@@ -2878,7 +3010,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" s="4">
         <v>10.99</v>
@@ -2898,10 +3030,13 @@
       <c r="J45" s="4">
         <v>11.32</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="4">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B46" s="1">
         <v>213</v>
@@ -2910,7 +3045,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E46" s="4">
         <v>11.7</v>
@@ -2930,10 +3065,13 @@
       <c r="J46" s="4">
         <v>11.09</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="4">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="1">
         <v>2011</v>
@@ -2962,16 +3100,19 @@
       <c r="J47" s="4">
         <v>9.23</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="4">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1">
         <v>365</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>6</v>
@@ -2994,10 +3135,13 @@
       <c r="J48" s="4">
         <v>9.61</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="4">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" s="1">
         <v>217</v>
@@ -3026,10 +3170,13 @@
       <c r="J49" s="4">
         <v>10.09</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="4">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1">
         <v>210</v>
@@ -3038,7 +3185,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" s="4">
         <v>11.58</v>
@@ -3058,10 +3205,13 @@
       <c r="J50" s="4">
         <v>9.9700000000000006</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="4">
+        <v>9.9700000000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="1">
         <v>282</v>
@@ -3070,7 +3220,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E51" s="4">
         <v>10.49</v>
@@ -3090,10 +3240,13 @@
       <c r="J51" s="4">
         <v>9.9600000000000009</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="4">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="1">
         <v>383</v>
@@ -3102,7 +3255,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="4">
         <v>7.72</v>
@@ -3122,10 +3275,13 @@
       <c r="J52" s="4">
         <v>9.41</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="4">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="1">
         <v>52</v>
@@ -3134,7 +3290,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E53" s="4">
         <v>9.49</v>
@@ -3154,19 +3310,22 @@
       <c r="J53" s="4">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="4">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="1">
         <v>50</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E54" s="4">
         <v>8.94</v>
@@ -3186,10 +3345,13 @@
       <c r="J54" s="4">
         <v>9.43</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="4">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1">
         <v>2004</v>
@@ -3218,10 +3380,13 @@
       <c r="J55" s="4">
         <v>7.92</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="4">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B56" s="1">
         <v>39</v>
@@ -3230,7 +3395,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" s="4">
         <v>9.0399999999999991</v>
@@ -3250,10 +3415,13 @@
       <c r="J56" s="4">
         <v>8.9499999999999993</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="4">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" s="1">
         <v>284</v>
@@ -3262,7 +3430,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E57" s="4">
         <v>9.89</v>
@@ -3282,19 +3450,22 @@
       <c r="J57" s="4">
         <v>8.4700000000000006</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="4">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" s="1">
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E58" s="4">
         <v>9.6999999999999993</v>
@@ -3314,10 +3485,13 @@
       <c r="J58" s="4">
         <v>8.91</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="4">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B59" s="1">
         <v>21</v>
@@ -3326,7 +3500,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" s="4">
         <v>8.26</v>
@@ -3346,10 +3520,13 @@
       <c r="J59" s="4">
         <v>8.68</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="4">
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="1">
         <v>157</v>
@@ -3358,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E60" s="4">
         <v>8.34</v>
@@ -3378,10 +3555,13 @@
       <c r="J60" s="4">
         <v>7.99</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="4">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="1">
         <v>19</v>
@@ -3390,7 +3570,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E61" s="4">
         <v>8.61</v>
@@ -3410,10 +3590,13 @@
       <c r="J61" s="4">
         <v>8.2899999999999991</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="4">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" s="1">
         <v>59</v>
@@ -3422,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62" s="4">
         <v>9.1199999999999992</v>
@@ -3442,10 +3625,13 @@
       <c r="J62" s="4">
         <v>8.74</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="4">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" s="1">
         <v>399</v>
@@ -3454,7 +3640,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" s="4">
         <v>7.86</v>
@@ -3474,10 +3660,13 @@
       <c r="J63" s="4">
         <v>8.08</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="4">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1">
         <v>316</v>
@@ -3486,7 +3675,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E64" s="4">
         <v>7.49</v>
@@ -3506,10 +3695,13 @@
       <c r="J64" s="4">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="4">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" s="1">
         <v>1387</v>
@@ -3518,7 +3710,7 @@
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E65" s="4">
         <v>7.79</v>
@@ -3538,10 +3730,13 @@
       <c r="J65" s="4">
         <v>7.89</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="4">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="1">
         <v>354</v>
@@ -3570,10 +3765,13 @@
       <c r="J66" s="4">
         <v>7.57</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="4">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" s="1">
         <v>358</v>
@@ -3602,10 +3800,13 @@
       <c r="J67" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="1">
         <v>56</v>
@@ -3614,7 +3815,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E68" s="4">
         <v>7.07</v>
@@ -3634,19 +3835,22 @@
       <c r="J68" s="4">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="4">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" s="1">
         <v>505</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E69" s="4">
         <v>10.65</v>
@@ -3666,10 +3870,13 @@
       <c r="J69" s="4">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="4">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B70" s="1">
         <v>2007</v>
@@ -3698,10 +3905,13 @@
       <c r="J70" s="4">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="1">
         <v>169</v>
@@ -3710,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E71" s="4">
         <v>8.01</v>
@@ -3730,10 +3940,13 @@
       <c r="J71" s="4">
         <v>6.99</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="4">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="1">
         <v>289</v>
@@ -3742,7 +3955,7 @@
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E72" s="4">
         <v>5.45</v>
@@ -3762,10 +3975,13 @@
       <c r="J72" s="4">
         <v>5.83</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="4">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" s="1">
         <v>101</v>
@@ -3774,7 +3990,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E73" s="4">
         <v>7.72</v>
@@ -3794,10 +4010,13 @@
       <c r="J73" s="4">
         <v>6.47</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="4">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="1">
         <v>359</v>
@@ -3826,10 +4045,13 @@
       <c r="J74" s="4">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="4">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="1">
         <v>2008</v>
@@ -3858,19 +4080,22 @@
       <c r="J75" s="4">
         <v>5.21</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="4">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="1">
         <v>330</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E76" s="4">
         <v>5.1100000000000003</v>
@@ -3890,10 +4115,13 @@
       <c r="J76" s="4">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="4">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" s="1">
         <v>38</v>
@@ -3902,7 +4130,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E77" s="4">
         <v>5.64</v>
@@ -3922,10 +4150,13 @@
       <c r="J77" s="4">
         <v>5.19</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="4">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" s="1">
         <v>2016</v>
@@ -3954,19 +4185,22 @@
       <c r="J78" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B79" s="1">
         <v>124</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E79" s="4">
         <v>5.63</v>
@@ -3986,10 +4220,13 @@
       <c r="J79" s="4">
         <v>4.96</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="4">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B80" s="1">
         <v>2017</v>
@@ -4018,10 +4255,13 @@
       <c r="J80" s="4">
         <v>5.0199999999999996</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="4">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B81" s="1">
         <v>245</v>
@@ -4030,7 +4270,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E81" s="4">
         <v>4.93</v>
@@ -4050,10 +4290,13 @@
       <c r="J81" s="4">
         <v>4.87</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="4">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82" s="1">
         <v>112</v>
@@ -4062,7 +4305,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E82" s="4">
         <v>4.67</v>
@@ -4082,10 +4325,13 @@
       <c r="J82" s="4">
         <v>5.09</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="4">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B83" s="1">
         <v>248</v>
@@ -4094,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E83" s="4">
         <v>5.24</v>
@@ -4114,19 +4360,22 @@
       <c r="J83" s="4">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="4">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84" s="1">
         <v>6</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E84" s="4">
         <v>5.14</v>
@@ -4146,10 +4395,13 @@
       <c r="J84" s="4">
         <v>4.66</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="4">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B85" s="1">
         <v>227</v>
@@ -4158,7 +4410,7 @@
         <v>5</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85" s="4">
         <v>4.54</v>
@@ -4178,10 +4430,13 @@
       <c r="J85" s="4">
         <v>4.76</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="4">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>112</v>
@@ -4190,7 +4445,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E86" s="4">
         <v>5.72</v>
@@ -4210,10 +4465,13 @@
       <c r="J86" s="4">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="4">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B87" s="1">
         <v>167</v>
@@ -4222,7 +4480,7 @@
         <v>5</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E87" s="4">
         <v>3.63</v>
@@ -4242,10 +4500,13 @@
       <c r="J87" s="4">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="4">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B88" s="1">
         <v>2</v>
@@ -4254,7 +4515,7 @@
         <v>5</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E88" s="4">
         <v>4.66</v>
@@ -4274,10 +4535,13 @@
       <c r="J88" s="4">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="4">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B89" s="1">
         <v>406</v>
@@ -4286,7 +4550,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E89" s="4">
         <v>3.55</v>
@@ -4306,10 +4570,13 @@
       <c r="J89" s="4">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="4">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" s="1">
         <v>277</v>
@@ -4318,7 +4585,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E90" s="4">
         <v>4.49</v>
@@ -4338,10 +4605,13 @@
       <c r="J90" s="4">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="4">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B91" s="1">
         <v>1996</v>
@@ -4370,10 +4640,13 @@
       <c r="J91" s="4">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="4">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92" s="1">
         <v>252</v>
@@ -4382,7 +4655,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E92" s="4">
         <v>4.3899999999999997</v>
@@ -4402,10 +4675,13 @@
       <c r="J92" s="4">
         <v>4.22</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="4">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1">
         <v>151</v>
@@ -4414,7 +4690,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E93" s="4">
         <v>3.95</v>
@@ -4434,19 +4710,22 @@
       <c r="J93" s="4">
         <v>4.6900000000000004</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="4">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94" s="1">
         <v>276</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E94" s="4">
         <v>4.32</v>
@@ -4466,19 +4745,22 @@
       <c r="J94" s="4">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="4">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" s="1">
         <v>287</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E95" s="4">
         <v>4.09</v>
@@ -4498,10 +4780,13 @@
       <c r="J95" s="4">
         <v>4.1399999999999997</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="4">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B96" s="1">
         <v>376</v>
@@ -4510,7 +4795,7 @@
         <v>5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E96" s="4">
         <v>3.56</v>
@@ -4530,10 +4815,13 @@
       <c r="J96" s="4">
         <v>3.98</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="4">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97" s="1">
         <v>2010</v>
@@ -4562,19 +4850,22 @@
       <c r="J97" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B98" s="1">
         <v>80</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E98" s="4">
         <v>3.96</v>
@@ -4594,10 +4885,13 @@
       <c r="J98" s="4">
         <v>3.91</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="4">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B99" s="1">
         <v>249</v>
@@ -4626,10 +4920,13 @@
       <c r="J99" s="4">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B100" s="1">
         <v>183</v>
@@ -4658,10 +4955,13 @@
       <c r="J100" s="4">
         <v>4.1900000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="4">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101" s="1">
         <v>23</v>
@@ -4670,7 +4970,7 @@
         <v>5</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E101" s="4">
         <v>4.03</v>
@@ -4690,10 +4990,13 @@
       <c r="J101" s="4">
         <v>3.88</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="4">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B102" s="1">
         <v>335</v>
@@ -4722,10 +5025,13 @@
       <c r="J102" s="4">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="4">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B103" s="1">
         <v>290</v>
@@ -4734,7 +5040,7 @@
         <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E103" s="4">
         <v>3.75</v>
@@ -4754,19 +5060,22 @@
       <c r="J103" s="4">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B104" s="1">
         <v>486</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E104" s="4">
         <v>3.94</v>
@@ -4786,10 +5095,13 @@
       <c r="J104" s="4">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="4">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B105" s="1">
         <v>422</v>
@@ -4818,10 +5130,13 @@
       <c r="J105" s="4">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="4">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -4830,7 +5145,7 @@
         <v>5</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E106" s="4">
         <v>3.58</v>
@@ -4850,19 +5165,22 @@
       <c r="J106" s="4">
         <v>3.45</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="4">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B107" s="1">
         <v>504</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E107" s="4">
         <v>3.65</v>
@@ -4882,16 +5200,19 @@
       <c r="J107" s="4">
         <v>3.41</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="4">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B108" s="1">
         <v>2006</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>8</v>
@@ -4914,10 +5235,13 @@
       <c r="J108" s="4">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="4">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B109" s="1">
         <v>280</v>
@@ -4926,7 +5250,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E109" s="4">
         <v>2.8</v>
@@ -4946,10 +5270,13 @@
       <c r="J109" s="4">
         <v>3.33</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="4">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B110" s="1">
         <v>215</v>
@@ -4958,7 +5285,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E110" s="4">
         <v>3.35</v>
@@ -4978,10 +5305,13 @@
       <c r="J110" s="4">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="4">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B111" s="1">
         <v>78</v>
@@ -4990,7 +5320,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E111" s="4">
         <v>2.0499999999999998</v>
@@ -5010,10 +5340,13 @@
       <c r="J111" s="4">
         <v>3.01</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="4">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B112" s="1">
         <v>331</v>
@@ -5042,10 +5375,13 @@
       <c r="J112" s="4">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="4">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B113" s="1">
         <v>1998</v>
@@ -5074,10 +5410,13 @@
       <c r="J113" s="4">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="4">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B114" s="1">
         <v>41</v>
@@ -5086,7 +5425,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E114" s="4">
         <v>2.85</v>
@@ -5106,10 +5445,13 @@
       <c r="J114" s="4">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" s="4">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B115" s="1">
         <v>219</v>
@@ -5118,7 +5460,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E115" s="4">
         <v>2.78</v>
@@ -5138,10 +5480,13 @@
       <c r="J115" s="4">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="4">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B116" s="1">
         <v>99</v>
@@ -5170,10 +5515,13 @@
       <c r="J116" s="4">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="4">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B117" s="1">
         <v>361</v>
@@ -5202,19 +5550,22 @@
       <c r="J117" s="4">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="4">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B118" s="1">
         <v>40</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E118" s="4">
         <v>2.99</v>
@@ -5234,19 +5585,22 @@
       <c r="J118" s="4">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" s="4">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B119" s="1">
         <v>230</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E119" s="4">
         <v>3.18</v>
@@ -5266,10 +5620,13 @@
       <c r="J119" s="4">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" s="4">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B120" s="1">
         <v>299</v>
@@ -5278,7 +5635,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E120" s="4">
         <v>2.34</v>
@@ -5298,19 +5655,22 @@
       <c r="J120" s="4">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" s="4">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B121" s="1">
         <v>55</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E121" s="4">
         <v>3.47</v>
@@ -5330,10 +5690,13 @@
       <c r="J121" s="4">
         <v>2.85</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" s="4">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B122" s="1">
         <v>199</v>
@@ -5342,7 +5705,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E122" s="4">
         <v>2.61</v>
@@ -5362,10 +5725,13 @@
       <c r="J122" s="4">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" s="4">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123" s="1">
         <v>288</v>
@@ -5374,7 +5740,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E123" s="4">
         <v>2.97</v>
@@ -5394,19 +5760,22 @@
       <c r="J123" s="4">
         <v>2.92</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" s="4">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B124" s="1">
         <v>49</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E124" s="4">
         <v>2.65</v>
@@ -5426,10 +5795,13 @@
       <c r="J124" s="4">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" s="4">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125" s="1">
         <v>335</v>
@@ -5438,7 +5810,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E125" s="4">
         <v>2.65</v>
@@ -5458,10 +5830,13 @@
       <c r="J125" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B126" s="1">
         <v>2</v>
@@ -5490,10 +5865,13 @@
       <c r="J126" s="4">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="4">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127" s="1">
         <v>203</v>
@@ -5502,7 +5880,7 @@
         <v>5</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E127" s="4">
         <v>2.4900000000000002</v>
@@ -5522,10 +5900,13 @@
       <c r="J127" s="4">
         <v>2.69</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="4">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B128" s="1">
         <v>230</v>
@@ -5534,7 +5915,7 @@
         <v>5</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E128" s="4">
         <v>2.8</v>
@@ -5554,10 +5935,13 @@
       <c r="J128" s="4">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="4">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B129" s="1">
         <v>207</v>
@@ -5566,7 +5950,7 @@
         <v>5</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E129" s="4">
         <v>2.09</v>
@@ -5586,10 +5970,13 @@
       <c r="J129" s="4">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="4">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B130" s="1">
         <v>2015</v>
@@ -5618,10 +6005,13 @@
       <c r="J130" s="4">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="4">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B131" s="1">
         <v>76</v>
@@ -5630,7 +6020,7 @@
         <v>5</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E131" s="4">
         <v>3.06</v>
@@ -5650,10 +6040,13 @@
       <c r="J131" s="4">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B132" s="1">
         <v>379</v>
@@ -5662,7 +6055,7 @@
         <v>5</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E132" s="4">
         <v>2.2400000000000002</v>
@@ -5682,19 +6075,22 @@
       <c r="J132" s="4">
         <v>2.2200000000000002</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="4">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B133" s="1">
         <v>255</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E133" s="4">
         <v>2.97</v>
@@ -5714,16 +6110,19 @@
       <c r="J133" s="4">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="4">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B134" s="1">
         <v>1999</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>8</v>
@@ -5746,10 +6145,13 @@
       <c r="J134" s="4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B135" s="1">
         <v>441</v>
@@ -5758,7 +6160,7 @@
         <v>5</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E135" s="4">
         <v>2.35</v>
@@ -5778,10 +6180,13 @@
       <c r="J135" s="4">
         <v>2.4900000000000002</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B136" s="1">
         <v>191</v>
@@ -5790,7 +6195,7 @@
         <v>5</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E136" s="4">
         <v>2.12</v>
@@ -5810,10 +6215,13 @@
       <c r="J136" s="4">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="4">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B137" s="1">
         <v>4</v>
@@ -5822,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E137" s="4">
         <v>2.1800000000000002</v>
@@ -5842,10 +6250,13 @@
       <c r="J137" s="4">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="4">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138" s="1">
         <v>137</v>
@@ -5854,7 +6265,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E138" s="4">
         <v>2.48</v>
@@ -5874,19 +6285,22 @@
       <c r="J138" s="4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="1">
         <v>81</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E139" s="4">
         <v>2.61</v>
@@ -5906,10 +6320,13 @@
       <c r="J139" s="4">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="4">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="1">
         <v>245</v>
@@ -5918,7 +6335,7 @@
         <v>5</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E140" s="4">
         <v>2.2999999999999998</v>
@@ -5938,10 +6355,13 @@
       <c r="J140" s="4">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" s="4">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="1">
         <v>192</v>
@@ -5950,7 +6370,7 @@
         <v>5</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E141" s="4">
         <v>1.38</v>
@@ -5970,10 +6390,13 @@
       <c r="J141" s="4">
         <v>2.0099999999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" s="1">
         <v>315</v>
@@ -5982,7 +6405,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E142" s="4">
         <v>1.99</v>
@@ -6002,10 +6425,13 @@
       <c r="J142" s="4">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="4">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143" s="1">
         <v>147</v>
@@ -6014,7 +6440,7 @@
         <v>5</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E143" s="4">
         <v>1.71</v>
@@ -6034,10 +6460,13 @@
       <c r="J143" s="4">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="4">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="1">
         <v>96</v>
@@ -6046,7 +6475,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E144" s="4">
         <v>1.77</v>
@@ -6066,10 +6495,13 @@
       <c r="J144" s="4">
         <v>1.81</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="4">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B145" s="1">
         <v>199</v>
@@ -6078,7 +6510,7 @@
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E145" s="4">
         <v>1.63</v>
@@ -6098,10 +6530,13 @@
       <c r="J145" s="4">
         <v>1.88</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B146" s="1">
         <v>231</v>
@@ -6110,7 +6545,7 @@
         <v>5</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E146" s="4">
         <v>1.84</v>
@@ -6130,10 +6565,13 @@
       <c r="J146" s="4">
         <v>1.94</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="4">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B147" s="1">
         <v>2009</v>
@@ -6162,10 +6600,13 @@
       <c r="J147" s="4">
         <v>1.72</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="4">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B148" s="1">
         <v>377</v>
@@ -6174,7 +6615,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E148" s="4">
         <v>1.84</v>
@@ -6194,10 +6635,13 @@
       <c r="J148" s="4">
         <v>1.85</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="4">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B149" s="1">
         <v>25</v>
@@ -6206,7 +6650,7 @@
         <v>5</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E149" s="4">
         <v>2.08</v>
@@ -6226,10 +6670,13 @@
       <c r="J149" s="4">
         <v>1.76</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="4">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B150" s="1">
         <v>2022</v>
@@ -6258,10 +6705,13 @@
       <c r="J150" s="4">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="4">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B151" s="1">
         <v>237</v>
@@ -6290,10 +6740,13 @@
       <c r="J151" s="4">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" s="4">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B152" s="1">
         <v>343</v>
@@ -6322,10 +6775,13 @@
       <c r="J152" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B153" s="1">
         <v>14</v>
@@ -6334,7 +6790,7 @@
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E153" s="4">
         <v>1.42</v>
@@ -6354,10 +6810,13 @@
       <c r="J153" s="4">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B154" s="1">
         <v>17</v>
@@ -6366,7 +6825,7 @@
         <v>5</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E154" s="4">
         <v>1.45</v>
@@ -6386,19 +6845,22 @@
       <c r="J154" s="4">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154" s="4">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B155" s="1">
         <v>70</v>
       </c>
       <c r="C155" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E155" s="4">
         <v>1.79</v>
@@ -6418,19 +6880,22 @@
       <c r="J155" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B156" s="1">
         <v>252</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E156" s="4">
         <v>1.67</v>
@@ -6450,19 +6915,22 @@
       <c r="J156" s="4">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156" s="4">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B157" s="1">
         <v>98</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E157" s="4">
         <v>1.81</v>
@@ -6482,10 +6950,13 @@
       <c r="J157" s="4">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157" s="4">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B158" s="1">
         <v>325</v>
@@ -6494,7 +6965,7 @@
         <v>5</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E158" s="4">
         <v>1.61</v>
@@ -6514,10 +6985,13 @@
       <c r="J158" s="4">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158" s="4">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B159" s="1">
         <v>94</v>
@@ -6526,7 +7000,7 @@
         <v>5</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E159" s="4">
         <v>1.36</v>
@@ -6546,10 +7020,13 @@
       <c r="J159" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B160" s="1">
         <v>455</v>
@@ -6558,7 +7035,7 @@
         <v>5</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E160" s="4">
         <v>1.65</v>
@@ -6578,10 +7055,13 @@
       <c r="J160" s="4">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160" s="4">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B161" s="1">
         <v>252</v>
@@ -6590,7 +7070,7 @@
         <v>5</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E161" s="4">
         <v>1.1000000000000001</v>
@@ -6610,10 +7090,13 @@
       <c r="J161" s="4">
         <v>1.32</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" s="4">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B162" s="1">
         <v>193</v>
@@ -6622,7 +7105,7 @@
         <v>5</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E162" s="4">
         <v>1.98</v>
@@ -6642,16 +7125,19 @@
       <c r="J162" s="4">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162" s="4">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B163" s="1">
         <v>609</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>6</v>
@@ -6674,10 +7160,13 @@
       <c r="J163" s="4">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" s="4">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B164" s="1">
         <v>112</v>
@@ -6686,7 +7175,7 @@
         <v>5</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E164" s="4">
         <v>1.55</v>
@@ -6706,10 +7195,13 @@
       <c r="J164" s="4">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164" s="4">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B165" s="1">
         <v>378</v>
@@ -6718,7 +7210,7 @@
         <v>5</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E165" s="4">
         <v>1.51</v>
@@ -6738,10 +7230,13 @@
       <c r="J165" s="4">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" s="4">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B166" s="1">
         <v>2021</v>
@@ -6770,19 +7265,22 @@
       <c r="J166" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B167" s="1">
         <v>110</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E167" s="4">
         <v>1.5</v>
@@ -6802,10 +7300,13 @@
       <c r="J167" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B168" s="1">
         <v>303</v>
@@ -6814,7 +7315,7 @@
         <v>5</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E168" s="4">
         <v>1.52</v>
@@ -6834,10 +7335,13 @@
       <c r="J168" s="4">
         <v>1.47</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168" s="4">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B169" s="1">
         <v>1994</v>
@@ -6866,10 +7370,13 @@
       <c r="J169" s="4">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" s="4">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B170" s="1">
         <v>237</v>
@@ -6878,7 +7385,7 @@
         <v>5</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E170" s="4">
         <v>1.06</v>
@@ -6898,16 +7405,19 @@
       <c r="J170" s="4">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170" s="4">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B171" s="1">
         <v>2002</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>8</v>
@@ -6930,10 +7440,13 @@
       <c r="J171" s="4">
         <v>1.43</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171" s="4">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B172" s="1">
         <v>2005</v>
@@ -6962,10 +7475,13 @@
       <c r="J172" s="4">
         <v>1.37</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172" s="4">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B173" s="1">
         <v>53</v>
@@ -6974,7 +7490,7 @@
         <v>5</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E173" s="4">
         <v>1.72</v>
@@ -6994,10 +7510,13 @@
       <c r="J173" s="4">
         <v>1.39</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173" s="4">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B174" s="1">
         <v>235</v>
@@ -7006,7 +7525,7 @@
         <v>5</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E174" s="4">
         <v>1.17</v>
@@ -7026,10 +7545,13 @@
       <c r="J174" s="4">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B175" s="1">
         <v>67</v>
@@ -7038,7 +7560,7 @@
         <v>5</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E175" s="4">
         <v>1.25</v>
@@ -7058,19 +7580,22 @@
       <c r="J175" s="4">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175" s="4">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B176" s="1">
         <v>92</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E176" s="4">
         <v>1.35</v>
@@ -7090,10 +7615,13 @@
       <c r="J176" s="4">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B177" s="1">
         <v>2014</v>
@@ -7122,10 +7650,13 @@
       <c r="J177" s="4">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177" s="4">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B178" s="1">
         <v>238</v>
@@ -7134,7 +7665,7 @@
         <v>5</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E178" s="4">
         <v>1.57</v>
@@ -7154,10 +7685,13 @@
       <c r="J178" s="4">
         <v>1.22</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B179" s="1">
         <v>74</v>
@@ -7186,10 +7720,13 @@
       <c r="J179" s="4">
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B180" s="1">
         <v>283</v>
@@ -7198,7 +7735,7 @@
         <v>5</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E180" s="4">
         <v>1.26</v>
@@ -7218,10 +7755,13 @@
       <c r="J180" s="4">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B181" s="1">
         <v>246</v>
@@ -7230,7 +7770,7 @@
         <v>5</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E181" s="4">
         <v>1.23</v>
@@ -7250,10 +7790,13 @@
       <c r="J181" s="4">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B182" s="1">
         <v>7</v>
@@ -7262,7 +7805,7 @@
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E182" s="4">
         <v>1.06</v>
@@ -7282,10 +7825,13 @@
       <c r="J182" s="4">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182" s="4">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B183" s="1">
         <v>1993</v>
@@ -7314,19 +7860,22 @@
       <c r="J183" s="4">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B184" s="1">
         <v>115</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E184" s="4">
         <v>1.21</v>
@@ -7346,19 +7895,22 @@
       <c r="J184" s="4">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184" s="4">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B185" s="1">
         <v>400</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E185" s="4">
         <v>1.1599999999999999</v>
@@ -7378,10 +7930,13 @@
       <c r="J185" s="4">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185" s="4">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B186" s="1">
         <v>54</v>
@@ -7390,7 +7945,7 @@
         <v>5</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E186" s="4">
         <v>1.04</v>
@@ -7410,10 +7965,13 @@
       <c r="J186" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B187" s="1">
         <v>20</v>
@@ -7422,7 +7980,7 @@
         <v>5</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E187" s="4">
         <v>0.82</v>
@@ -7442,19 +8000,22 @@
       <c r="J187" s="4">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187" s="4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B188" s="1">
         <v>92</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E188" s="4">
         <v>1.27</v>
@@ -7474,10 +8035,13 @@
       <c r="J188" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B189" s="1">
         <v>287</v>
@@ -7486,7 +8050,7 @@
         <v>5</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E189" s="4">
         <v>1.1499999999999999</v>
@@ -7506,10 +8070,13 @@
       <c r="J189" s="4">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189" s="4">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B190" s="1">
         <v>109</v>
@@ -7518,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E190" s="4">
         <v>1.02</v>
@@ -7538,10 +8105,13 @@
       <c r="J190" s="4">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190" s="4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B191" s="1">
         <v>124</v>
@@ -7550,7 +8120,7 @@
         <v>5</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E191" s="4">
         <v>0.99</v>
@@ -7570,19 +8140,22 @@
       <c r="J191" s="4">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B192" s="1">
         <v>320</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E192" s="4">
         <v>0.9</v>
@@ -7602,10 +8175,13 @@
       <c r="J192" s="4">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192" s="4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B193" s="1">
         <v>204</v>
@@ -7614,7 +8190,7 @@
         <v>5</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E193" s="4">
         <v>0.84</v>
@@ -7634,10 +8210,13 @@
       <c r="J193" s="4">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193" s="4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B194" s="1">
         <v>223</v>
@@ -7646,7 +8225,7 @@
         <v>5</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E194" s="4">
         <v>0.71</v>
@@ -7666,10 +8245,13 @@
       <c r="J194" s="4">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194" s="4">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B195" s="1">
         <v>93</v>
@@ -7678,7 +8260,7 @@
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E195" s="4">
         <v>0.76</v>
@@ -7698,10 +8280,13 @@
       <c r="J195" s="4">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195" s="4">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B196" s="1">
         <v>110</v>
@@ -7710,7 +8295,7 @@
         <v>5</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E196" s="4">
         <v>0.62</v>
@@ -7730,10 +8315,13 @@
       <c r="J196" s="4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196" s="4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B197" s="1">
         <v>194</v>
@@ -7742,7 +8330,7 @@
         <v>5</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E197" s="4">
         <v>0.86</v>
@@ -7762,10 +8350,13 @@
       <c r="J197" s="4">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197" s="4">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B198" s="1">
         <v>199</v>
@@ -7774,7 +8365,7 @@
         <v>5</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E198" s="4">
         <v>0.91</v>
@@ -7794,10 +8385,13 @@
       <c r="J198" s="4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198" s="4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B199" s="1">
         <v>172</v>
@@ -7806,7 +8400,7 @@
         <v>5</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E199" s="4">
         <v>0.69</v>
@@ -7826,10 +8420,13 @@
       <c r="J199" s="4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199" s="4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B200" s="1">
         <v>495</v>
@@ -7838,7 +8435,7 @@
         <v>5</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E200" s="4">
         <v>0.69</v>
@@ -7858,10 +8455,13 @@
       <c r="J200" s="4">
         <v>0.69</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200" s="4">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B201" s="1">
         <v>2000</v>
@@ -7890,19 +8490,22 @@
       <c r="J201" s="4">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B202" s="1">
         <v>5</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E202" s="4">
         <v>0.66</v>
@@ -7922,10 +8525,13 @@
       <c r="J202" s="4">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B203" s="1">
         <v>2001</v>
@@ -7954,10 +8560,13 @@
       <c r="J203" s="4">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B204" s="1">
         <v>278</v>
@@ -7966,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E204" s="4">
         <v>0.68</v>
@@ -7986,10 +8595,13 @@
       <c r="J204" s="4">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204" s="4">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B205" s="1">
         <v>91</v>
@@ -7998,7 +8610,7 @@
         <v>5</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E205" s="4">
         <v>0.7</v>
@@ -8018,19 +8630,22 @@
       <c r="J205" s="4">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205" s="4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B206" s="1">
         <v>191</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E206" s="4">
         <v>0.56999999999999995</v>
@@ -8050,10 +8665,13 @@
       <c r="J206" s="4">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206" s="4">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B207" s="1">
         <v>243</v>
@@ -8062,7 +8680,7 @@
         <v>5</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E207" s="4">
         <v>0.41</v>
@@ -8082,10 +8700,13 @@
       <c r="J207" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B208" s="1">
         <v>108</v>
@@ -8094,7 +8715,7 @@
         <v>5</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E208" s="4">
         <v>0.61</v>
@@ -8114,10 +8735,13 @@
       <c r="J208" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B209" s="1">
         <v>198</v>
@@ -8126,7 +8750,7 @@
         <v>5</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E209" s="4">
         <v>0.59</v>
@@ -8146,10 +8770,13 @@
       <c r="J209" s="4">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209" s="4">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B210" s="1">
         <v>192</v>
@@ -8158,7 +8785,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E210" s="4">
         <v>0.6</v>
@@ -8178,10 +8805,13 @@
       <c r="J210" s="4">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B211" s="1">
         <v>257</v>
@@ -8190,7 +8820,7 @@
         <v>5</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E211" s="4">
         <v>0.36</v>
@@ -8210,10 +8840,13 @@
       <c r="J211" s="4">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B212" s="1">
         <v>359</v>
@@ -8222,7 +8855,7 @@
         <v>5</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E212" s="4">
         <v>0.57999999999999996</v>
@@ -8242,10 +8875,13 @@
       <c r="J212" s="4">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B213" s="1">
         <v>201</v>
@@ -8274,10 +8910,13 @@
       <c r="J213" s="4">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213" s="4">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B214" s="1">
         <v>300</v>
@@ -8286,7 +8925,7 @@
         <v>5</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E214" s="4">
         <v>0.62</v>
@@ -8306,10 +8945,13 @@
       <c r="J214" s="4">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B215" s="1">
         <v>45</v>
@@ -8338,10 +8980,13 @@
       <c r="J215" s="4">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215" s="4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B216" s="1">
         <v>315</v>
@@ -8370,10 +9015,13 @@
       <c r="J216" s="4">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216" s="4">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B217" s="1">
         <v>672</v>
@@ -8382,7 +9030,7 @@
         <v>5</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E217" s="4">
         <v>0.46</v>
@@ -8402,10 +9050,13 @@
       <c r="J217" s="4">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B218" s="1">
         <v>671</v>
@@ -8414,7 +9065,7 @@
         <v>5</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E218" s="4">
         <v>0.49</v>
@@ -8434,10 +9085,13 @@
       <c r="J218" s="4">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218" s="4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B219" s="1">
         <v>457</v>
@@ -8446,7 +9100,7 @@
         <v>5</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E219" s="4">
         <v>0.46</v>
@@ -8466,19 +9120,22 @@
       <c r="J219" s="4">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219" s="4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B220" s="1">
         <v>109</v>
       </c>
       <c r="C220" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E220" s="4">
         <v>0.53</v>
@@ -8498,10 +9155,13 @@
       <c r="J220" s="4">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220" s="4">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B221" s="1">
         <v>20</v>
@@ -8510,7 +9170,7 @@
         <v>5</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E221" s="4">
         <v>0.64</v>
@@ -8530,10 +9190,13 @@
       <c r="J221" s="4">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221" s="4">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B222" s="1">
         <v>255</v>
@@ -8542,7 +9205,7 @@
         <v>5</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E222" s="4">
         <v>0.28999999999999998</v>
@@ -8562,10 +9225,13 @@
       <c r="J222" s="4">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B223" s="1">
         <v>198</v>
@@ -8574,7 +9240,7 @@
         <v>5</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E223" s="4">
         <v>0.47</v>
@@ -8594,10 +9260,13 @@
       <c r="J223" s="4">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B224" s="1">
         <v>120</v>
@@ -8606,7 +9275,7 @@
         <v>5</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E224" s="4">
         <v>0.79</v>
@@ -8626,10 +9295,13 @@
       <c r="J224" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B225" s="1">
         <v>149</v>
@@ -8638,7 +9310,7 @@
         <v>5</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E225" s="4">
         <v>0.33</v>
@@ -8658,10 +9330,13 @@
       <c r="J225" s="4">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225" s="4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B226" s="1">
         <v>316</v>
@@ -8670,7 +9345,7 @@
         <v>5</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E226" s="4">
         <v>0.38</v>
@@ -8690,10 +9365,13 @@
       <c r="J226" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B227" s="1">
         <v>1997</v>
@@ -8722,10 +9400,13 @@
       <c r="J227" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B228" s="1">
         <v>19</v>
@@ -8734,7 +9415,7 @@
         <v>5</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E228" s="4">
         <v>0.4</v>
@@ -8754,10 +9435,13 @@
       <c r="J228" s="4">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228" s="4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B229" s="1">
         <v>177</v>
@@ -8766,7 +9450,7 @@
         <v>5</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E229" s="4">
         <v>0.36</v>
@@ -8786,10 +9470,13 @@
       <c r="J229" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B230" s="1">
         <v>93</v>
@@ -8798,7 +9485,7 @@
         <v>5</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E230" s="4">
         <v>0.4</v>
@@ -8818,10 +9505,13 @@
       <c r="J230" s="4">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230" s="4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B231" s="1">
         <v>10</v>
@@ -8830,7 +9520,7 @@
         <v>5</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E231" s="4">
         <v>0.37</v>
@@ -8850,19 +9540,22 @@
       <c r="J231" s="4">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231" s="4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B232" s="1">
         <v>4</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E232" s="4">
         <v>0.41</v>
@@ -8882,10 +9575,13 @@
       <c r="J232" s="4">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B233" s="1">
         <v>77</v>
@@ -8894,7 +9590,7 @@
         <v>5</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E233" s="4">
         <v>0.35</v>
@@ -8914,19 +9610,22 @@
       <c r="J233" s="4">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233" s="4">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B234" s="1">
         <v>474</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E234" s="4">
         <v>0.3</v>
@@ -8946,10 +9645,13 @@
       <c r="J234" s="4">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234" s="4">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B235" s="1">
         <v>15</v>
@@ -8958,7 +9660,7 @@
         <v>5</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E235" s="4">
         <v>0.32</v>
@@ -8978,10 +9680,13 @@
       <c r="J235" s="4">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B236" s="1">
         <v>115</v>
@@ -8990,7 +9695,7 @@
         <v>5</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E236" s="4">
         <v>0.28999999999999998</v>
@@ -9010,19 +9715,22 @@
       <c r="J236" s="4">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B237" s="1">
         <v>72</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D237" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E237" s="4">
         <v>0.32</v>
@@ -9042,10 +9750,13 @@
       <c r="J237" s="4">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237" s="4">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B238" s="1">
         <v>11</v>
@@ -9054,7 +9765,7 @@
         <v>5</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E238" s="4">
         <v>0.28999999999999998</v>
@@ -9074,19 +9785,22 @@
       <c r="J238" s="4">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238" s="4">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B239" s="1">
         <v>11</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E239" s="4">
         <v>0.44</v>
@@ -9106,10 +9820,13 @@
       <c r="J239" s="4">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B240" s="1">
         <v>142</v>
@@ -9118,7 +9835,7 @@
         <v>5</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E240" s="4">
         <v>0.41</v>
@@ -9138,19 +9855,22 @@
       <c r="J240" s="4">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B241" s="1">
         <v>1</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E241" s="4">
         <v>0.32</v>
@@ -9170,19 +9890,22 @@
       <c r="J241" s="4">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241" s="4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B242" s="1">
         <v>245</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E242" s="4">
         <v>0.31</v>
@@ -9202,19 +9925,22 @@
       <c r="J242" s="4">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B243" s="1">
         <v>47</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E243" s="4">
         <v>0.37</v>
@@ -9234,19 +9960,22 @@
       <c r="J243" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B244" s="1">
         <v>359</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E244" s="4">
         <v>0.28999999999999998</v>
@@ -9266,19 +9995,22 @@
       <c r="J244" s="4">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B245" s="1">
         <v>55</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E245" s="4">
         <v>0.24</v>
@@ -9298,10 +10030,13 @@
       <c r="J245" s="4">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B246" s="1">
         <v>12</v>
@@ -9310,7 +10045,7 @@
         <v>5</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E246" s="4">
         <v>0.36</v>
@@ -9330,19 +10065,22 @@
       <c r="J246" s="4">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B247" s="1">
         <v>1</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E247" s="4">
         <v>0.28000000000000003</v>
@@ -9362,19 +10100,22 @@
       <c r="J247" s="4">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247" s="4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B248" s="1">
         <v>53</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E248" s="4">
         <v>0.28000000000000003</v>
@@ -9394,10 +10135,13 @@
       <c r="J248" s="4">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248" s="4">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B249" s="1">
         <v>469</v>
@@ -9406,7 +10150,7 @@
         <v>5</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E249" s="4">
         <v>0.28000000000000003</v>
@@ -9426,19 +10170,22 @@
       <c r="J249" s="4">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B250" s="1">
         <v>100</v>
       </c>
       <c r="C250" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E250" s="4">
         <v>0.36</v>
@@ -9458,10 +10205,13 @@
       <c r="J250" s="4">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B251" s="1">
         <v>70</v>
@@ -9470,7 +10220,7 @@
         <v>5</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E251" s="4">
         <v>0.27</v>
@@ -9490,10 +10240,13 @@
       <c r="J251" s="4">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251" s="4">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B252" s="1">
         <v>333</v>
@@ -9502,7 +10255,7 @@
         <v>5</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E252" s="4">
         <v>0.24</v>
@@ -9522,10 +10275,13 @@
       <c r="J252" s="4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B253" s="1">
         <v>69</v>
@@ -9534,7 +10290,7 @@
         <v>5</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E253" s="4">
         <v>0.22</v>
@@ -9554,19 +10310,22 @@
       <c r="J253" s="4">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B254" s="1">
         <v>15</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E254" s="4">
         <v>0.3</v>
@@ -9586,10 +10345,13 @@
       <c r="J254" s="4">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B255" s="1">
         <v>114</v>
@@ -9598,7 +10360,7 @@
         <v>5</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E255" s="4">
         <v>0.24</v>
@@ -9618,19 +10380,22 @@
       <c r="J255" s="4">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255" s="4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B256" s="1">
         <v>379</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E256" s="4">
         <v>0.24</v>
@@ -9650,10 +10415,13 @@
       <c r="J256" s="4">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256" s="4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B257" s="1">
         <v>294</v>
@@ -9662,7 +10430,7 @@
         <v>5</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E257" s="4">
         <v>0.21</v>
@@ -9682,19 +10450,22 @@
       <c r="J257" s="4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K257" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B258" s="1">
         <v>66</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E258" s="4">
         <v>0.25</v>
@@ -9714,19 +10485,22 @@
       <c r="J258" s="4">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K258" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B259" s="1">
         <v>87</v>
       </c>
       <c r="C259" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D259" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E259" s="4">
         <v>0.23</v>
@@ -9746,19 +10520,22 @@
       <c r="J259" s="4">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K259" s="4">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B260" s="1">
         <v>40</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E260" s="4">
         <v>0.24</v>
@@ -9778,10 +10555,13 @@
       <c r="J260" s="4">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K260" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B261" s="1">
         <v>7</v>
@@ -9790,7 +10570,7 @@
         <v>5</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E261" s="4">
         <v>0.24</v>
@@ -9810,10 +10590,13 @@
       <c r="J261" s="4">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K261" s="4">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B262" s="1">
         <v>70</v>
@@ -9822,7 +10605,7 @@
         <v>5</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E262" s="4">
         <v>0.26</v>
@@ -9842,10 +10625,13 @@
       <c r="J262" s="4">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B263" s="1">
         <v>74</v>
@@ -9854,7 +10640,7 @@
         <v>5</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E263" s="4">
         <v>0.25</v>
@@ -9874,19 +10660,22 @@
       <c r="J263" s="4">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B264" s="1">
         <v>49</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E264" s="4">
         <v>0.21</v>
@@ -9906,10 +10695,13 @@
       <c r="J264" s="4">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K264" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B265" s="1">
         <v>231</v>
@@ -9918,7 +10710,7 @@
         <v>5</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E265" s="4">
         <v>0.21</v>
@@ -9938,10 +10730,13 @@
       <c r="J265" s="4">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K265" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B266" s="1">
         <v>291</v>
@@ -9950,7 +10745,7 @@
         <v>5</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E266" s="4">
         <v>0.16</v>
@@ -9970,10 +10765,13 @@
       <c r="J266" s="4">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K266" s="4">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B267" s="1">
         <v>438</v>
@@ -9982,7 +10780,7 @@
         <v>5</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E267" s="4">
         <v>0.28000000000000003</v>
@@ -10002,10 +10800,13 @@
       <c r="J267" s="4">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B268" s="1">
         <v>295</v>
@@ -10014,7 +10815,7 @@
         <v>5</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E268" s="4">
         <v>0.21</v>
@@ -10034,19 +10835,22 @@
       <c r="J268" s="4">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K268" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B269" s="1">
         <v>67</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E269" s="4">
         <v>0.23</v>
@@ -10066,10 +10870,13 @@
       <c r="J269" s="4">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K269" s="4">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B270" s="1">
         <v>114</v>
@@ -10078,7 +10885,7 @@
         <v>5</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E270" s="4">
         <v>0.16</v>
@@ -10098,19 +10905,22 @@
       <c r="J270" s="4">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K270" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B271" s="1">
         <v>397</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E271" s="4">
         <v>0.16</v>
@@ -10130,10 +10940,13 @@
       <c r="J271" s="4">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K271" s="4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B272" s="1">
         <v>262</v>
@@ -10142,7 +10955,7 @@
         <v>5</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E272" s="4">
         <v>0.26</v>
@@ -10162,10 +10975,13 @@
       <c r="J272" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K272" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B273" s="1">
         <v>444</v>
@@ -10174,7 +10990,7 @@
         <v>5</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E273" s="4">
         <v>0.2</v>
@@ -10194,10 +11010,13 @@
       <c r="J273" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K273" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B274" s="1">
         <v>225</v>
@@ -10206,7 +11025,7 @@
         <v>5</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E274" s="4">
         <v>0.17</v>
@@ -10226,10 +11045,13 @@
       <c r="J274" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K274" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B275" s="1">
         <v>82</v>
@@ -10238,7 +11060,7 @@
         <v>5</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E275" s="4">
         <v>0.22</v>
@@ -10258,10 +11080,13 @@
       <c r="J275" s="4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K275" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B276" s="1">
         <v>289</v>
@@ -10270,7 +11095,7 @@
         <v>5</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E276" s="4">
         <v>0.23</v>
@@ -10290,10 +11115,13 @@
       <c r="J276" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K276" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B277" s="1">
         <v>236</v>
@@ -10302,7 +11130,7 @@
         <v>5</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E277" s="4">
         <v>0.22</v>
@@ -10322,10 +11150,13 @@
       <c r="J277" s="4">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K277" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B278" s="1">
         <v>201</v>
@@ -10334,7 +11165,7 @@
         <v>5</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E278" s="4">
         <v>0.21</v>
@@ -10354,10 +11185,13 @@
       <c r="J278" s="4">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K278" s="4">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B279" s="1">
         <v>328</v>
@@ -10386,19 +11220,22 @@
       <c r="J279" s="4">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K279" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B280" s="1">
         <v>112</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E280" s="4">
         <v>0.17</v>
@@ -10418,10 +11255,13 @@
       <c r="J280" s="4">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K280" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B281" s="1">
         <v>470</v>
@@ -10450,10 +11290,13 @@
       <c r="J281" s="4">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K281" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B282" s="1">
         <v>288</v>
@@ -10462,7 +11305,7 @@
         <v>5</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E282" s="4">
         <v>0.18</v>
@@ -10482,10 +11325,13 @@
       <c r="J282" s="4">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K282" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B283" s="1">
         <v>255</v>
@@ -10494,7 +11340,7 @@
         <v>5</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E283" s="4">
         <v>0.17</v>
@@ -10514,10 +11360,13 @@
       <c r="J283" s="4">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K283" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B284" s="1">
         <v>277</v>
@@ -10526,7 +11375,7 @@
         <v>5</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E284" s="4">
         <v>0.16</v>
@@ -10546,10 +11395,13 @@
       <c r="J284" s="4">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K284" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B285" s="1">
         <v>246</v>
@@ -10558,7 +11410,7 @@
         <v>5</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E285" s="4">
         <v>0.13</v>
@@ -10578,10 +11430,13 @@
       <c r="J285" s="4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K285" s="4">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B286" s="1">
         <v>300</v>
@@ -10610,10 +11465,13 @@
       <c r="J286" s="4">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K286" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B287" s="1">
         <v>29</v>
@@ -10622,7 +11480,7 @@
         <v>5</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E287" s="4">
         <v>0.06</v>
@@ -10642,10 +11500,13 @@
       <c r="J287" s="4">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K287" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B288" s="1">
         <v>273</v>
@@ -10654,7 +11515,7 @@
         <v>5</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E288" s="4">
         <v>0.09</v>
@@ -10674,10 +11535,13 @@
       <c r="J288" s="4">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K288" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B289" s="1">
         <v>13</v>
@@ -10686,7 +11550,7 @@
         <v>5</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E289" s="4">
         <v>0.17</v>
@@ -10706,10 +11570,13 @@
       <c r="J289" s="4">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K289" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B290" s="1">
         <v>137</v>
@@ -10718,7 +11585,7 @@
         <v>5</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E290" s="4">
         <v>0.14000000000000001</v>
@@ -10738,10 +11605,13 @@
       <c r="J290" s="4">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K290" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B291" s="1">
         <v>240</v>
@@ -10750,7 +11620,7 @@
         <v>5</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E291" s="4">
         <v>0.08</v>
@@ -10770,10 +11640,13 @@
       <c r="J291" s="4">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K291" s="4">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B292" s="1">
         <v>276</v>
@@ -10782,7 +11655,7 @@
         <v>5</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E292" s="4">
         <v>0.1</v>
@@ -10802,10 +11675,13 @@
       <c r="J292" s="4">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K292" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B293" s="1">
         <v>233</v>
@@ -10814,7 +11690,7 @@
         <v>5</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E293" s="4">
         <v>0.09</v>
@@ -10826,7 +11702,7 @@
         <v>0.09</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>9</v>
+        <v>335</v>
       </c>
       <c r="I293" s="4">
         <v>0.08</v>
@@ -10834,8 +11710,11 @@
       <c r="J293" s="4">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K293" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>336</v>
       </c>
@@ -10846,7 +11725,7 @@
         <v>5</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E294" s="4">
         <v>7.0000000000000007E-2</v>
@@ -10866,8 +11745,11 @@
       <c r="J294" s="4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K294" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>337</v>
       </c>
@@ -10878,7 +11760,7 @@
         <v>5</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E295" s="4">
         <v>0.02</v>
@@ -10898,8 +11780,11 @@
       <c r="J295" s="4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K295" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>338</v>
       </c>
@@ -10930,28 +11815,31 @@
       <c r="J296" s="4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K296" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B297" s="1">
         <v>98</v>
       </c>
       <c r="C297" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="E297" s="1" t="s">
-        <v>9</v>
+        <v>335</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>9</v>
+        <v>335</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>9</v>
+        <v>335</v>
       </c>
       <c r="H297" s="4">
         <v>1.87</v>
@@ -10960,6 +11848,9 @@
         <v>1.76</v>
       </c>
       <c r="J297" s="4">
+        <v>1.76</v>
+      </c>
+      <c r="K297" s="4">
         <v>1.76</v>
       </c>
     </row>

--- a/MagicPrices.xlsx
+++ b/MagicPrices.xlsx
@@ -1,66 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalton\Desktop\Magic-Pricing\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CEE269-77AC-4A27-8930-4D20C0DD29C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Card</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Foiling</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,32 +76,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,66 +449,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.140625" style="1" customWidth="1"/>
-    <col min="12" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col width="32.85546875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="9.140625" customWidth="1" style="1" min="2" max="3"/>
+    <col width="11" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12.42578125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="10.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="11.85546875" customWidth="1" style="1" min="7" max="7"/>
+    <col width="11.5703125" customWidth="1" style="1" min="8" max="8"/>
+    <col width="10.7109375" customWidth="1" style="1" min="9" max="9"/>
+    <col width="11.140625" customWidth="1" style="1" min="10" max="11"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="1" min="12" max="19"/>
+    <col width="9.140625" customWidth="1" style="1" min="20" max="20"/>
+    <col width="9.140625" customWidth="1" style="1" min="21" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+    <row r="1" ht="16.5" customHeight="1" thickBot="1" thickTop="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Card</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>CN</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Foiling</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="n">
+        <v>44920</v>
+      </c>
+      <c r="F1" s="3" t="n">
+        <v>44920</v>
+      </c>
+      <c r="G1" s="3" t="n">
+        <v>44920</v>
+      </c>
+      <c r="H1" s="3" t="n">
+        <v>44920</v>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+      <c r="X1" s="3" t="n"/>
+      <c r="Y1" s="3" t="n"/>
+      <c r="Z1" s="3" t="n"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="15.75" customHeight="1" thickTop="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Blast-Furnace Hellkite</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BRC</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gnarlback Rhino</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>148</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2X2</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ambuscade</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>133</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2X2</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Rampant Growth</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>155</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2X2</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rancor</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>156</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2X2</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>

--- a/MagicPrices.xlsx
+++ b/MagicPrices.xlsx
@@ -1,43 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalton\Desktop\Magic-Pricing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EF4ACE-9AE2-4FA9-9A1B-05BFE4622E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Foiling</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,91 +101,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -449,244 +414,309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:K1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="32.85546875" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9.140625" customWidth="1" style="1" min="2" max="3"/>
-    <col width="11" customWidth="1" style="1" min="4" max="4"/>
-    <col width="12.42578125" customWidth="1" style="1" min="5" max="5"/>
-    <col width="10.85546875" customWidth="1" style="1" min="6" max="6"/>
-    <col width="11.85546875" customWidth="1" style="1" min="7" max="7"/>
-    <col width="11.5703125" customWidth="1" style="1" min="8" max="8"/>
-    <col width="10.7109375" customWidth="1" style="1" min="9" max="9"/>
-    <col width="11.140625" customWidth="1" style="1" min="10" max="11"/>
-    <col width="10.7109375" bestFit="1" customWidth="1" style="1" min="12" max="19"/>
-    <col width="9.140625" customWidth="1" style="1" min="20" max="20"/>
-    <col width="9.140625" customWidth="1" style="1" min="21" max="16384"/>
+    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.140625" style="1" customWidth="1"/>
+    <col min="12" max="19" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="9.140625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" thickBot="1" thickTop="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
+    <row r="1" spans="1:26" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Foiling</t>
-        </is>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Set</t>
-        </is>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
-      <c r="E1" s="3" t="n">
-        <v>44920</v>
-      </c>
-      <c r="F1" s="3" t="n">
-        <v>44920</v>
-      </c>
-      <c r="G1" s="3" t="n">
-        <v>44920</v>
-      </c>
-      <c r="H1" s="3" t="n">
-        <v>44920</v>
-      </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
-      <c r="O1" s="3" t="n"/>
-      <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
-      <c r="R1" s="3" t="n"/>
-      <c r="S1" s="3" t="n"/>
-      <c r="T1" s="3" t="n"/>
-      <c r="U1" s="3" t="n"/>
-      <c r="V1" s="3" t="n"/>
-      <c r="W1" s="3" t="n"/>
-      <c r="X1" s="3" t="n"/>
-      <c r="Y1" s="3" t="n"/>
-      <c r="Z1" s="3" t="n"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" thickTop="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Blast-Furnace Hellkite</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BRC</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Gnarlback Rhino</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>148</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2X2</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ambuscade</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>133</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2X2</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Rampant Growth</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>155</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2X2</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rancor</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>156</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2X2</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1.15</v>
-      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MagicPrices.xlsx
+++ b/MagicPrices.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,24 @@
       <c r="G1" s="2" t="n">
         <v>44920</v>
       </c>
+      <c r="H1" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="M1" s="2" t="n">
+        <v>44921</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
